--- a/publipostage2/01kv58h76/liste_essais_cliniques_identifies_01kv58h76.xlsx
+++ b/publipostage2/01kv58h76/liste_essais_cliniques_identifies_01kv58h76.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/01kv58h76/liste_essais_cliniques_identifies_01kv58h76.xlsx
+++ b/publipostage2/01kv58h76/liste_essais_cliniques_identifies_01kv58h76.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,32 +513,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT00121121</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2005</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>A Phase Ib Vaccine Trial Evaluating the Safety and Immunogenicity of HIV Lipopeptides by Two Administration Routes (Intramuscular And Intradermal) in Healthy Adult Volunteers. ANRS VAC16 Trial</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -552,32 +562,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT00196586</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pilot Study of Addition of IL-2 to Pegylated Interferon Alpha 2a and Ribavirin for the Treatment of Chronic Hepatitis C in HIV-HCV Coinfected Patients Non Responders to Three Months of Therapy With Pegylated Interferon Alpha 2a and Ribavirin. ANRS HC09 SECOIIA</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -596,32 +611,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT00120185</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Study of the Immunological Efficacy of Using Subcutaneous Interleukin-2 (IL-2) in Antiretroviral Naïve HIV-1-Infected Subjects With a CD4 Cell Count Above 300/mm3. ANRS 119 Trial INTERSTART</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -640,32 +660,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT00117494</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Randomised Comparative Study of the Efficacy and Safety of Rosuvastatin and Pravastatin in Dyslipidemic Patients Treated With Antiretroviral Agents. Anrs 126</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -684,32 +709,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT00118677</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Long-Term Supervised Treatment Interruption in HIV-Infected Patients Who Started Antiretroviral Treatment With CD4 Over 350/mm3 and Plasma HIV RNA Below 50 000/mL ANRS 116 Trial SALTO</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -728,32 +758,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT00121758</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Randomised Double Blinded Phase II AIDS Vaccine Study Comparing Immunogenicity and Safety of 3 Doses of Lipopeptide (LIPO-5) Versus Placebo in Non Infected HIV Volunteers (ANRS VAC 18)</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -772,32 +807,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT00122603</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Efficacy and Safety of Regimens Restricted to a Combination of Two Boosted Protease Inhibitors as Potent Antiretroviral Therapy in HIV-1 Infected Patients. ANRS 127 2IP</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -816,32 +856,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT00148863</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Pilot Study on Interferon Gamma in Association With Peg-Interferon Alpha 2a and Ribavirin Among Patients With a Chronic Hepatitis C and Non Responders to the Association of Peg-Interferon Alpha 2b or 2a and Ribavirin ANRS HC16 Gammatri</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -860,32 +905,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT00120367</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Early Intensification of Combination Antiretroviral Therapy Including FUZEON® in the Treatment of Progressive Multifocal Leucoencephalopathy During HIV-1 Infection ANRS 125 Trial</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -904,32 +954,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT00113282</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Study of the Immunological Efficacy of Adding Subcutaneous Interleukin-2 (IL-2) to an Optimized Antiretroviral Regimen in HIV-1-infected Subjects Experiencing Therapeutic Failure on an Ongoing Antiretroviral Combination With a CD4 Cell Count ≤ 200/mm3 ANRS 123 Trial</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -948,36 +1003,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT00454337</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Randomized Non-inferiority Study Comparing a Strategy Maintaining Current Enfuvirtide-based Antiretroviral Therapy to a Strategy Replacing Enfuvirtide by an Integrase Inhibitor (Raltegravir) in HIV-1 Infected Subjects With Plasma Hiv-1 RNA Levels Below 400 Copies Per ml.ANRS 138 EASIER</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>EASIER</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -996,36 +1056,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT00528060</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Pilot Study to Measure Exposure to Atazanavir, as a Component of Pharmacokinetic Parameters and Adherence Measured With MEMS in Naive HIV-infected Patients Treated Once Daily With Atazanavir Combined to Ritonavir and to Tenofovir/Emtricitabine. ANRS 134 Cophar 3</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>ANRS134COPHAR3</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1044,32 +1109,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT00120757</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Efficacy of Alendronate Versus Placebo in the Treatment of HIV-1 Associated Osteoporosis, a Multicenter, Randomized, Controlled Trial. ANRS 120 Fosivir</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1086,38 +1156,43 @@
           <t>rouge</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2007-003203-12</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Pharmacocinétique de l’atazanavir chez des patients infectés par le VIH, traités en première ligne par l’association atazanavir+ritonavir et emtricitabine+ténofovir en prise unique.</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>COPHAR-3</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1130,38 +1205,43 @@
           <t>rouge</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2007-000162-20</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Essai randomisé de non-infériorité comparant une stratégie de maintien du traitement antirétroviral en cours à une stratégie de substitution de l’enfuvirtide par un inhibiteur de l’intégrase (MK 0518) chez des sujets infectés par le VIH-1, ayant un ARN VIH-1 plasmatique inférieur à 400 copies/ml.</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>EASIER</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1176,32 +1256,37 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT00122616</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Efficacy of Pegylated Interferon on Liver Fibrosis in Co-infected Patient With HIV and C Hepatitis Who Failed to Active Treatment for HCV. ANRSHC12 Fibrostop</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1220,32 +1305,37 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT00302822</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Enfuvirtide for the Initial Phase of Antiretroviral Therapy in HIV-infected Patients With High Risk of Clinical Progression : ANRS 130 APOLLO</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1264,36 +1354,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT00460382</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Prospective Clinical Trial to Assess Safety and Efficacy of DRV/r(TMC 114/r), ETV(TMC 125) and MK-0518 in Addition to OBT in HIV-1 Infected Patients With Limited to No Treatment Options ANRS 139 TRIO</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>ANRS139 TRIO</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1312,36 +1407,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT00490074</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>A Phase I/II Trial to Compare the Immunogenicity and Safety of 3 DNA C Prime Followed by 1 NYVAC C Boost to 2 DNA C Prime Followed by 2 NYVAC C Boost</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>EV03/ANRSVAC20</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1358,38 +1458,43 @@
           <t>rouge</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2007-000670-23</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Essai pilote évaluant un traitement antirétroviral associant le MK-0518, le darunavir/ritonavir (TMC114/r) et l’etravirine (TMC125) chez les patients infectés par le VIH-1, en échec virologique et porteurs de virus multi-résistants.</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>TRIO</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1404,32 +1509,37 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>NCT00196664</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Assessment of the Efficacy of Paroxetine in the Prevention of Depressive Syndrome in Patients With Chronic Hepatitis C Treated by PEG-Interferon Alfa Plus Ribavirin. Multicentric, Double-Blinded, Randomized Study. ANRS HC18 Paropeg</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1448,32 +1558,37 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT00115609</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Pilot Trial Evaluating Once Daily Triple Combination Antiretroviral Therapy With Tenofovir-Emtricitabine and Efavirenz in HIV-1 Infected Patients With Mycobacterium Tuberculosis Infection ANRS129 BKVIR</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1490,38 +1605,43 @@
           <t>rouge</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2009-016226-13</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Etude de phase II randomisée évaluant l'immunogénicité et la tolérance du vaccin antigrippal A(H1N1)v adjuvanté comparativement au vaccin antigrippal A(H1N1)v non adjuvanté chez des patients infectés par le VIH (ANRS 151 HIFLUVAC)</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>HIFLUVAC</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
       <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1536,36 +1656,41 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NCT01038401</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Characterization of the Residual Replication of HIV-1 in the Gut-associated Lymphoid Tissue in Patients Receiving Effective Highly Active Antiretroviral Therapy: the ANRS EP 44 Study</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>EP 44</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
       <c r="J25" t="b">
         <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1584,32 +1709,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT00383734</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Randomized, Comparative, Multicenter, Patient-blinded Trial of the Safety and Efficacy of Intradermal Injections of Polylactic Acid (Newfill TM) Versus Polyacrylamid Gel (Eutrophill) in the Treatment of Facial Lipoatrophy in HIV-infected Patients ANRS 132 SMILE</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1628,32 +1758,37 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT00647205</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Evaluation of 2 Interferon γ Assays (QuantiFERON TB Gold In-Tube® and T-SPOT.TB®) in the Diagnosis of Latent Tuberculosis in HIV-infected Patients.ANRS EP 40 QUANTI SPOT</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1672,36 +1807,41 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>NCT00536627</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Randomised, Opened, Multicentre Phase I/II Trial in Patients With Chronic Hepatitis B With HBV VL &lt; 12 IU/ml and Under Treatment With NRTI, Which Evaluated Efficacy and Tolerance of Vaccination With Naked DNA on Viral Replication After Analogs' Treatment Interruption. ANRS HB02 VAC-ADN</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>VAC-ADN</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1720,36 +1860,41 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>NCT01039220</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Incidence of H1N1v Influenza-like Illness and Risk Factors for Serious Influenza Forms in HIV Infected Patients</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>ANRS 2H</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1768,32 +1913,37 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>NCT01008813</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>A Randomized Phase II Trial to Evaluate the Immunogenicity and Safety of an Adjuvanted A(H1N1)v Influenza Vaccine and a Non-adjuvanted A(H1N1)v Influenza Vaccine in HIV-infected Patients (ANRS 151 Hifluvac)</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="b">
         <v>0</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1812,40 +1962,45 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>NCT00574652</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2006-004039-31</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>ANRS HC 21 VASCU IL-2, Evaluation of the Cellular Immune Response, Clinical Efficacy and Tolerance After IL-2 Therapy in HCV-related Vasculitis Patients, Resistant to Conventional Therapy.</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>VASCU-IL2</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1864,32 +2019,37 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>NCT01164462</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
         <is>
           <t>DRAG</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1908,36 +2068,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>NCT00657397</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Initialization of Methadone in Primary Care; a Randomized Intervention Research for Preventing HCV Transmission Practices. ANRS Methaville</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>Methaville</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
       <c r="J33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1956,36 +2121,41 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>NCT00944541</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Pilot Study Evaluating Maraviroc (Celsentri®)Intensification Benefit in HIV Infected Patients Presenting Insufficient Immune Restoration Despite Controlled Viral Load With Antiretroviral Treatment. ANRS 145 MARIMUNO</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>145 MARIMUNO</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2002,38 +2172,43 @@
           <t>rouge</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>2009-011171-76</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Etude pilote évaluant l’intérêt d’une intensification par maraviroc (Celsentri®) chez des patients infectés par le VIH-1 présentant une restauration immunitaire insuffisante malgré une charge virale contrôlée par un traitement anti-rétroviral.</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>MARIMUNO</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="b">
-        <v>1</v>
-      </c>
-      <c r="L35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2046,38 +2221,43 @@
           <t>rouge</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>2006-005962-38</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Essai randomisé de non-infériorité comparant la capacité à maintenir le succès virologique d’une stratégie de traitement simplifié par une monothérapie d’inhibiteur de protéase boosté, le darunavir/r (TMC114/r), par rapport au maintien d’une trithérapie comportant 2 inhibiteurs nucléosidiques de la transcriptase inverse (INTI) associés au darunavir/r (TMC114/r) chez des patients infectés par le VIH-1 en succès immunovirologique.</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>MONOI</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2092,32 +2272,37 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>NCT00421551</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>A Randomized Multicenter Study With Non-inferiority Hypothesis, Comparing the Availability to Maintain a Complete Viral Suppression by a Monotherapy of Darunavir/r to a NRTI Containing Regimen Including Darunavir/r, in HIV-1 Infected Patients With Previous Prolonged Complete Viral Suppression. ANRS 136 MONOI</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="b">
-        <v>1</v>
-      </c>
-      <c r="L37" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2136,32 +2321,37 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>NCT00424814</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Prevention of HIV1 Mother to Child Transmission Without Nucleoside Analogue Reverse Transcriptase Inhibitors in the Pre-partum Phase. A Multicenter Randomised Phase II/III Open Label Study With a Group of 100 Pregnant Women Receiving Lopinavir/Ritonavir and a Group of 50 Receiving Lopinavir/Ritonavir Plus Zidovudine and Lamivudine. ANRS 135 Primeva</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="b">
         <v>1</v>
       </c>
       <c r="K38" t="b">
         <v>1</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2180,36 +2370,41 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>NCT00820118</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>ARNS 141 TIPI : A Pilot Trial to Assess the Ability of an Intermittent Antiretroviral Therapy in Maintaining an Immunological Stability in Antiretroviral naïve HIV Infected Adults, With CD4 Count Above 500/mm3</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>TIPI</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
       <c r="J39" t="b">
         <v>0</v>
       </c>
       <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2228,32 +2423,37 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>NCT00822315</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Phase II Open-label Randomized Multicenter Trial to Compare the Efficacy and Safety of Two Different Doses of Raltegravir and Efavirenz, All in Combination With Tenofovir and Lamivudine, in Naive HIV-1-infected Patients Receiving Rifampin for Active Tuberculosis</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="b">
         <v>1</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2272,36 +2472,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>NCT00901524</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>ANRS HC20 Pilot Study, Multicenter, Assessing the Effectiveness of an Optimized Anti HCV (360μg/Week Induction of PegIFN-alpha2a + 18mg/kg/j of RBV for 6 Months and Then Depending on the Virological Response to S12, Elongation up S72 to the Dual Anti HCV, With Accompanying Measures) on Sustained Virological Response in Patients With HCV Genotype 1 and 4 Non Responders and Co-infected With HIV.</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>ETOC</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
       <c r="J41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="b">
         <v>1</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2320,36 +2525,41 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>NCT00480792</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Open-label, Randomized, and Multicentric Phase III Clinical Trial Comparing Three Strategies of Vaccination Against the Virus of Hepatitis B in HIV-1-infected Patients With CD4-positive T-lymphocytes Counts Above 200 permm3 ANRS HB 03 VIHVAC-B</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>VIHVAC-B</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2366,38 +2576,43 @@
           <t>rouge</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>2008-000859-10</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Etude pilote, multicentrique, évaluant l’efficacité d’un traitement anti VHC optimisé (induction par 360µg/S de PegIFN-alpha 2a + 18mg/kg/j de RBV pendant 6 mois puis en fonction de la réponse virologique à S12, allongement jusqu'à S72 de la bithérapie anti VHC, avec mesures d'accompagnement) sur la réponse virologique soutenue chez des patients VHC de génotype 1 et 4, non répondeurs et co-infectés par le VIH.</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>ETOC</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
       <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="L43" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2412,36 +2627,41 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>NCT00391638</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Pilot Study on Efficacy and Tolerance of Peg-interferon Alpha-2a (Pegasys) Added to Tenofovir DF and Emtricitabine (Truvada) in AGHBe Positive HBV-HIV Co-infected Patients. ANRS HB 01 EMVIPEG.</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>HB01EMVIPEG</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2460,36 +2680,41 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>NCT01413152</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>EVALUATION DU RISQUE RESIDUEL DE TRANSMISSION DU VIH CHEZ DES HSH TRAITES AYANT UNE CHARGE VIRALE PLASMATIQUE INDETECTABLE</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>EP 49 EVARIST</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2508,36 +2733,41 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>NCT01065207</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>ANRS HIV CONTROLLERS NATIONAL OBSERVATORY</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>ANRS CO18</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2556,36 +2786,41 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>NCT01226446</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Multicenter Open and Prospective Trial Assessing the Efficacy of Vitamin D Supplementation in Addition to Pegylated Interferon Plus Ribavirin in Null-Responders Patients With Chronic Viral Hepatitis C Genotype 1 or 4</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>ANRS VITAVIC</t>
         </is>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
       <c r="J47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="b">
         <v>1</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="b">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2604,36 +2839,41 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>NCT00265642</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Study of the Effects of a Sartan on Hepatic Fibrosis Progression in Chronic Viral Hepatitis C</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>Fibrosar</t>
         </is>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2652,32 +2892,37 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>NCT01033760</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Optimisation of Primary HIV1 Infection Treatment (ANRS 147 OPTIPRIM)</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="b">
         <v>1</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2696,36 +2941,41 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>NCT01066962</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>An Open-label Randomised Two-year Trial Comparing Two First-line Regimens in HIV-infected Antiretroviral naïve Subjects: Darunavir/r + Tenofovir/Emtricitabine vs. Darunavir/r + Raltegravir (ANRS 143/NEAT 001)</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>ANRS 143</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
       <c r="J50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="b">
         <v>1</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L50" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2744,36 +2994,41 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>NCT01022476</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>A Pilot Study of Pharmacokinetics, Tolerance and Efficacy of Raltegravir Combined to Two Fully Active Molecules Among Nucleosi(ti)de Analogs and Enfuvirtide Before and After Liver Transplant in HIV Infected Patients With End Stage Liver Disease (ANRS 148 LIVERAL)</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>LIVERAL</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2792,36 +3047,41 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>NCT01332955</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Pilot Study of PegInterferon-Ribavirin-Telaprevir Efficacy and Tolerability in HIV-HCV Coinfected Patients Who Had Previously Failed a PegInterferon-Ribavirin Regimen. (ANRS HC26 TelapreVIH)</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>TelapreVIH</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
       <c r="J52" t="b">
         <v>1</v>
       </c>
       <c r="K52" t="b">
         <v>1</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="L52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2838,38 +3098,43 @@
           <t>rouge</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
         <is>
           <t>2009-015121-37</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Etude multicentrique randomisée ouverte comparant la réduction virale et la tolérance de l’association IFN alpha-2b XL + ribavirine versus IFN peg alpha-2b + ribavirine chez des patients atteints d’hépatite chronique C de génotype 1</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>COAT-IFN</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
       <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="L53" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2884,36 +3149,41 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>NCT00670839</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Open-label, Randomized, and Multicenter Phase III Clinical Trial Comparing Immunogenicity of Double-dose (40 µg at S0, S4 and S24), Versus Standard Dose Vaccination (20 µg at S0, S4 and S24), Against Hepatitis B Virus in HIV-1-infected Patients Without Any Previous Immune Response After Primary Immunization Plus One Single Boost</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>B-BOOST</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
       <c r="J54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="b">
         <v>1</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="b">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2932,32 +3202,37 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>NCT00323804</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Randomized, Double-blind, Placebo-controlled Multicenter Study Evaluating the Interest of a Long-term (3 Years) Treatment With Peginterferon Alfa-2b and Ribavirin on Liver Fibrosis in Non-responder Chronic Hepatitis C Patients.</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="b">
         <v>0</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2976,36 +3251,41 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>NCT00116454</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>A Randomized and Multicenter Trial for Hepatocellular Carcinoma Adjuvant Treatment by Lipiocis</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>Lipiocis</t>
         </is>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3022,38 +3302,43 @@
           <t>rouge</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
         <is>
           <t>2009-014616-36</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Etude pilote de la pharmacocinétique, de la tolérance et de l’efficacité du raltégravir associé à deux molécules actives parmi les analogues nucléosi(ti)diques et l’enfuvirtide, avant et après transplantation hépatique chez des patients VIH+ en insuffisance hépatique sévère.</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>LIVERAL</t>
         </is>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
       <c r="K57" t="b">
-        <v>1</v>
-      </c>
-      <c r="L57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="L57" t="b">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3066,34 +3351,39 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
         <is>
           <t>2009-015113-44</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>An open-label randomised two-year trial comparing two first-line regimens in HIV-infected antiretroviral naïve subjects:  darunavir/r + tenofovir/emtricitabine vs. darunavir/r + raltegravir</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="b">
         <v>0</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
       </c>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3108,36 +3398,41 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>NCT01725542</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Pilot Study to Assess the Efficacy and Tolerance to a QUadruple Therapy With Asunaprevir , Daclatasvir, Ribavirin and Pegylated Interferon Alpha-2a, in HIV-HCV Genotype 1 or 4 Coinfected Patients Previously Null Responders to a Standard Pegylated Interferon -Ribavirin Regimen</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>QUADRIH</t>
         </is>
       </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
       <c r="J59" t="b">
         <v>1</v>
       </c>
       <c r="K59" t="b">
         <v>1</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="b">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3156,36 +3451,41 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>NCT01335529</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Pilot Study to Assess the Efficacy and Safety of Boceprevir, in Combination With Peg-Interferon Alfa and Ribavirin, in Patients With HCV/HIV Co-infection Who Have Failed to a Previous Therapy With Peg-Interferon/Ribavirin</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>BocepreVIH</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
       <c r="J60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="b">
         <v>1</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L60" t="b">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3204,36 +3504,41 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>NCT00918307</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Comparison of the Efficacy and Safety of Varenicline Versus Placebo for Smoking Cessation Among HIV-infected Patients. A Randomized Double Blind Controlled Trial</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>Inter-ACTIV</t>
         </is>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
       <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L61" t="b">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3252,36 +3557,41 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>NCT00946595</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>A Study Comparing Efficacy and Tolerance of Two Maintenance Strategies : a Monotherapy With Lopinavir/Ritonavir or a Single-tablet Triple Therapy by Efavirenz/Emtricitabin/Tenofovir in HIV-1 Infected Patients With HIV RNA Below 50 cp/mL</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>ANRS 140 DREAM</t>
         </is>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
       <c r="J62" t="b">
         <v>0</v>
       </c>
       <c r="K62" t="b">
-        <v>1</v>
-      </c>
-      <c r="L62" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3300,36 +3610,41 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>NCT01207986</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Early Lung Cancer Diagnosis in HIV Infected Population With an Important Smoking History With Low Dose CT: a Pilot Study</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>EP48 HIV CHEST</t>
         </is>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -3348,36 +3663,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>NCT01453192</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>National, Multicenter, Phase III Prospective Trial About Clinical and Immunological Follow-up After Renal Transplantation in HIV-1 Infected Patients With End Stage Chronic Renal Insufficiency</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>ANRS153TREVE</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3396,36 +3716,41 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>NCT02125500</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2013-002607-33</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Pilot Study to Assess Efficacy and Safety of Sofosbuvir/Ledipasvir (GS-5885) Fixed-dose Combination in NS3/4A Protease Inhibitor-experienced Subjects With HCV Genotype 1 Infection and HIV Co-infection</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="b">
         <v>0</v>
       </c>
       <c r="K65" t="b">
-        <v>1</v>
-      </c>
-      <c r="L65" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L65" t="b">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3444,32 +3769,37 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>NCT02107365</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Pilot Study to Assess Efficacy and Safety of a Quadruple Therapy With Asunaprevir, Daclatasvir, Ribavirin and Pegylated Interferon Alpha-2a in HCV Genotype 4-infected Patients Non-responders to Pegylated Interferon-Ribavirin Regimen</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="b">
         <v>0</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3488,32 +3818,37 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>NCT01463956</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Pilot Study on the Efficacy of Pegylated Interferon-Ribavirin-Boceprevir Triple Therapy in Patients Infected With Genotype 1 HCV With Cirrhosis and Awaiting Liver Transplantation (ANRS HC 29 BOCEPRETRANSPLANT)</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="b">
         <v>0</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -3532,36 +3867,41 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>NCT01605890</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>ANRS 159 VIH-2 : Trial Evaluating a First Line Combination Therapy With Raltegravir, Emtricitabine and Tenofovir in HIV-2 Infected Patients</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>VIH-2</t>
         </is>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
       <c r="J68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="b">
         <v>1</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="L68" t="b">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3580,36 +3920,41 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>NCT01952587</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Frequency and Functional Impact of the c.32A&gt;T Genetic Polymorphism of TLR7 in Women Infected With HIV-1 : the ANRS EP53 Study</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>X LIBRIS</t>
         </is>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -3628,36 +3973,41 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>NCT01348308</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Optimized Phase III Trial of Immuno-stimulation With Maraviroc, a CCR5 (Chemokine Receptor 5) Antagonist, Combined With Anti Retroviral Therapy in Advanced, Late Diagnosed HIV-1 Infected Patients With an AIDS-defining Event and/or CD4 (Cluster of Differentiation 4) Counts Below 200 Cells/mm³. ANRS 146 OPTIMAL</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>OPTIMAL</t>
         </is>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
       <c r="J70" t="b">
         <v>0</v>
       </c>
       <c r="K70" t="b">
-        <v>1</v>
-      </c>
-      <c r="L70" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L70" t="b">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3676,36 +4026,41 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>NCT02384967</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Phase II Trial Assessing the Efficacy of a Reduced Dose Strategy of Darunavir to 400 mg/d in HIV-1 Infected Patients Virologically Suppressed Under a Once Daily Regimen Including Darunavir 800 mg/d and Two Nucleoside Reverse Transcriptase Inhibitors (NRTI), to Maintain the Viral Load Lower Than 50 Copies / mL at 48 Weeks of Treatment</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>DARULIGHT</t>
         </is>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
       <c r="J71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" t="b">
         <v>1</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="L71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3724,36 +4079,41 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>NCT02157311</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Evaluation of the Capacity of a Weekly Strategy of 4 Consecutive Days on Treatment Followed by 3 Days Off Treatment, in HIV-1 Infected Patients With Undetectable Viral Load for at Least 12 Months, to Maintain a Virological Success With This Intermittent Maintenance Therapy After a Successful Continuous Induction Therapy.</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>ANRS162-4D</t>
         </is>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
       <c r="J72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="b">
         <v>1</v>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L72" t="b">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3772,36 +4132,41 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>NCT02093754</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Assessing the Severity of Metabolic-related Liver Injuries in Aging HIV-monoinfected Patients: a European Multicentre Study</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>ANRS ECHAM</t>
         </is>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
       <c r="J73" t="b">
         <v>0</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3820,36 +4185,41 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>NCT01473472</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>On Demand Antiretroviral Pre-exposure Prophylaxis for HIV Infection in Men Who Have Sex With Men</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>IPERGAY</t>
         </is>
       </c>
-      <c r="I74" t="b">
-        <v>1</v>
-      </c>
       <c r="J74" t="b">
         <v>1</v>
       </c>
       <c r="K74" t="b">
         <v>1</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L74" t="b">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3868,36 +4238,41 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>NCT01899196</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>EPICARDIAL ADIPOSE TISSUE AND CORONARY RISK IN HIV-INFECTED PATIENTS</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>ANRS EP 52</t>
         </is>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
       <c r="J75" t="b">
         <v>0</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -3916,36 +4291,41 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>NCT02038842</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Phase I/II Open-label Randomized Multicenter Trial to Assess Immunogenicity and Safety of 4 Prime-boost Combinations of HIV Vaccine Candidates (MVA HIV-B/ LIPO-5; LIPO-5/MVA HIV-B; GTU®-MultiHIV B / LIPO-5; GTU®-MultiHIV B/MVA HIV-B) in Healthy Volunteers at Low Risk of HIV Infection</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>VRI01</t>
         </is>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
       <c r="J76" t="b">
         <v>0</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -3964,32 +4344,37 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>NCT02527096</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>A Pilot Trial Evaluating Maintenance Therapy With Lamivudine(Epivir®) and Dolutegravir(Tivicay®) in Human Immunodeficiency Virus 1 (HIV-1) Infected Patients Virologically Suppressed With Triple HAART - ANRS 167 Lamidol</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="b">
         <v>0</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4008,40 +4393,45 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>NCT02099474</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2013-004571-12</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Evaluation of the Pharmacokinetic Properties and the Tolerance of Raltegravir During the Third Trimester of Pregnancy</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>ANRS 160 RalFE</t>
         </is>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
       <c r="J78" t="b">
         <v>0</v>
       </c>
       <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L78" t="b">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4060,32 +4450,37 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>NCT01492985</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Evaluation of a Therapeutic Immunization Strategy Associating a DNA Vaccine (GTU-MultiHIV B) Followed by a Lipopeptide Vaccine (LIPO-5) in the Control of Viral Replication Following Antiretroviral Treatment Interruption in HIV-1 Infected Patients With a CD4 Cell Count ≥ 600/mm3</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="b">
         <v>0</v>
       </c>
       <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L79" t="b">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4104,36 +4499,41 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>NCT02592174</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Prevalence, Characteristics and Risk Factors of HIV-Associated Neurocognitive Disorders in Subjects Between the Ages of 55 and 70 Years: An Exposed/Unexposed Cross Sectional Study</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>HAND55-70</t>
         </is>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
       <c r="J80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" t="b">
         <v>1</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="L80" t="b">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -4152,36 +4552,41 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>NCT01426243</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>The Yellow Fever Vaccine Immunity in HIV Infected Patients : Development of New Assays for Virological and Immunological Monitoring in HIV Infected Patient</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>EP46 NOVAA</t>
         </is>
       </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
       <c r="J81" t="b">
         <v>1</v>
       </c>
       <c r="K81" t="b">
         <v>1</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="L81" t="b">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4198,41 +4603,46 @@
           <t>rouge</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
         <is>
           <t>2013-002996-16</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>ANRS SHS155 STIMAGO: Pilote study to evaluate the benefits and the risks of methylphenidate for the treatment of cocain dependence.  
  ANRS SHS155 STIMAGO : Etude pilote pour l’évaluation des bénéfices et des risques du méthylphénidate pour la prise en charge de la dépendance à la cocaïne.</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>ANRS SHS155 STIMAGO 
  ANRS SHS155 STIMAGO</t>
         </is>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
       <c r="J82" t="b">
         <v>0</v>
       </c>
       <c r="K82" t="b">
-        <v>1</v>
-      </c>
-      <c r="L82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="L82" t="b">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4247,36 +4657,41 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>NCT01942655</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>ANRS RF002 Intestipax : Interleukin-23 (IL-23)/Interleukin-12 (IL-12) Imbalance and T Lymphocyte Polarization in HIV Infection</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>INTESTIPAX</t>
         </is>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
       <c r="J83" t="b">
         <v>0</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4295,32 +4710,37 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>NCT01895920</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr">
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
         <is>
           <t>TRANSBioHIV</t>
         </is>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
       <c r="J84" t="b">
         <v>0</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4339,36 +4759,41 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>NCT01269632</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Long Term Evaluation of Young Adults Born to HIV-infected Mothers. A Cohort of Young Adults Infected With HIV Since Birth or During Childhood</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>CO19 COVERTE</t>
         </is>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
       <c r="J85" t="b">
         <v>0</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4387,36 +4812,41 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>NCT02273765</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Phase III Open-label Randomized Multicenter Trial to Assess the Non-inferiority of Raltegravir Compared With EFavirenz, Both in Combination With LAmivudine and TEnofovir, in ART-naïve HIV-1-infected Patients Receiving Rifampin for Active TuBerculosis</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>REFLATE TB2</t>
         </is>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
       <c r="J86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" t="b">
         <v>1</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="L86" t="b">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4435,32 +4865,37 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>NCT02212379</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Dual Therapy Combining Raltegravir With Etravirine Maintains a High Level of Viral Suppression Over 96 Weeks in Long-term Experienced HIV-infected Individuals Over 45 Years on a PI-based Regimen: Results From the Phase II ANRS 163 ETRAL Study</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="b">
         <v>1</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="L87" t="b">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4479,36 +4914,41 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>NCT02738502</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>An Open-label Phase II Pilot Study of Prevention of Perinatal Transmission of HIV-1 Without Nucleoside Reverse Transcriptase Inhibitors</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>MONOGEST</t>
         </is>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
       <c r="J88" t="b">
         <v>0</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4527,36 +4967,41 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>NCT02906137</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Altered Homing of T Lymphocytes to the Gut and Poor Immune Reconstitution of the Intestinal Mucosa in Treated HIV-infected Individuals</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>GALT</t>
         </is>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
       <c r="J89" t="b">
         <v>0</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4575,36 +5020,41 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>NCT02987530</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>Phase III Multicenter Randomized Trial Evaluating in Patients At the Time of the Primary HIV-1 Infection, the Impact on the Viral Reservoir of a Combination Including Tenofovir/emtricitabine and Dolutegravir or Tenofovir/emtricitabine and Darunavir/cobicistat</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>OPTIPRIM-2</t>
         </is>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
       <c r="J90" t="b">
         <v>0</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4623,36 +5073,41 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>NCT04008927</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>Towards Ending HCV Infection Among Active Drug Users: a Community-based Intervention in Montpellier.</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>ICONE</t>
         </is>
       </c>
-      <c r="I91" t="b">
-        <v>1</v>
-      </c>
       <c r="J91" t="b">
         <v>1</v>
       </c>
       <c r="K91" t="b">
         <v>1</v>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="L91" t="b">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4671,32 +5126,37 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>NCT03671291</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>National Survey on Missed Opportunities to Pre-exposure Prophylaxis for Prevention of Human Immunodeficiency Virus-infection.</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="b">
         <v>0</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -4715,36 +5175,41 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>NCT02287961</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>Natural History of Anal Human Papillomavirus Infection and Associated Disease in HIV-infected Men Who Have Sex With Men: Towards an Evidence Base for the Prevention of Anal Cancer.</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>APACHES</t>
         </is>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
       <c r="J93" t="b">
         <v>0</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4763,36 +5228,41 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>NCT05311865</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>Transmission of Covid-19 During Clubbing Events in Closed Places</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>ITOC</t>
         </is>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
       <c r="J94" t="b">
         <v>0</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4811,36 +5281,41 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>NCT04824638</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>A Phase II Trial Assessing Immunogenicity and Safety of COVID-19 mRNA Vaccine BNT162b2 in Adult Volunteers With no History of SARS-CoV-2 Infection Administered With Two Doses of Vaccine (D1-D29) and in Adult Volunteers With Documented History of SARS-CoV-2 Infection (of More Than 5 Months) Administered With Only One Dose of Vaccine</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>CoviCompareP</t>
         </is>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
       <c r="J95" t="b">
         <v>0</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4859,36 +5334,41 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>NCT04133012</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>A Prospective Study Aiming to Determine the Cartography of Virological Reservoir Related to Antiretroviral Concentrations in Chronic HIV-1 Patients Treated with a First Line of Dolutegravir and Associated Nucleoside / Nucleotide Reverse Transcriptase Inhibitors (NRTIs).</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>DOLUVOIR</t>
         </is>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
       <c r="J96" t="b">
         <v>0</v>
       </c>
       <c r="K96" t="b">
         <v>0</v>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="L96" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4907,36 +5387,41 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>NCT04120415</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2019-002818-40</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>EHVA T02 (European HIV Vaccine Alliance Therapeutic Trial 02)/ANRS VRI07: A Phase II Randomised, Placebo-controlled Trial of Vedolizumab With or Without Therapeutic HIV MVA Vaccine in Individuals Who Started Antiretrovirals During Primary or Chronic Infection</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" t="b">
         <v>1</v>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="L97" t="b">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4955,32 +5440,37 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>NCT04842682</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>A Phase I Multicenter Double-blind Placebo Controlled Dose Escalation Trial of an Adjuvanted Anti-CD40 mAb Fused to Env GP140 HIV Clade C ZM-96 (CD40.HIVRI.Env) Vaccine Combined or Not With a DNA-HIV-PT123 HIV-1 Vaccine in Healthy Participants</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="b">
         <v>0</v>
       </c>
       <c r="K98" t="b">
         <v>0</v>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="L98" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4999,36 +5489,41 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>NCT04597424</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>Combined Prevention of Sexually Transmitted Infections (STIs) in Men Who Have Sex With Men and Using Oral Tenofovir Disoproxil Fumarate/ Emtricitabine (TDF/FTC) for HIV Pre-Exposure Prophylaxis (PrEP)</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>DOXYVAC</t>
         </is>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
       <c r="J99" t="b">
         <v>0</v>
       </c>
       <c r="K99" t="b">
         <v>0</v>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="L99" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -5045,34 +5540,39 @@
           <t>rouge</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
         <is>
           <t>2006-003940-50</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr">
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
         <is>
           <t>ESSAI RANDOMISE MULTICENTRIQUE DE PHASE III COMPARANT L’IMMUNOGENICITE ET LA TOLERANCE DE TROIS SCHEMAS DE VACCINATION CONTRE LE VIRUS DE L’HEPATITE B CHEZ DES PATIENTS INFECTES PAR LE VIH AYANT DES LYMPHOCYTES T CD4 SUPERIEURS A 200/mm3</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>VIHVAC-B</t>
         </is>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
       <c r="J100" t="b">
         <v>0</v>
       </c>
       <c r="K100" t="b">
-        <v>1</v>
-      </c>
-      <c r="L100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="L100" t="b">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5085,35 +5585,40 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
         <is>
           <t>2021-000509-26</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr">
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
         <is>
           <t>A phase II trial assessing immunogenicity and safety of COVID-19 mRNA Vaccine BNT162b2 in adult volunteers with no history of SARS CoV-2 infection administered with two doses of vaccine (D1-D29) and in adult volunteers with documented history of SARS CoV-2 infection (of more than 6 months) administered with only one dose of vaccine 
  Essai de phase II évaluant l'immunogénicité et la sécurité du vaccin à ARNm COVID-19 BNT162b2 chez des participants adultes sans antécédents d'infection par le SARS CoV-2, administrés avec deux doses de vaccin (J1-J29) et chez des participants adultes ayant des antécédents documentés d'infection par le SRAS CoV-2 (de plus de 6 mois), administrés avec une seule dose de vaccin.</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
       <c r="J101" t="b">
         <v>0</v>
       </c>
       <c r="K101" t="b">
         <v>0</v>
       </c>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5126,36 +5631,41 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
         <is>
           <t>2017-000040-17</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr">
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
         <is>
           <t>Randomized, open-label and multicentric trial evaluating the non-inferiority of antiretroviral treatment taken 4 consecutive days per week versus continuous therapy 7/7 days per week in HIV-1 infected patients with controlled viral load under antiretroviral therapy 
  Essai multicentrique, en ouvert, randomisé en 2 groupes parallèles, évaluant la non-infériorité d’un traitement de maintenance à 4 jours consécutifs sur 7 versus la poursuite du traitement antirétroviral en continu, chez des patients en succès thérapeutique sous ARV.</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>QUATUOR 
  QUATUOR</t>
         </is>
       </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
       <c r="J102" t="b">
         <v>0</v>
       </c>
       <c r="K102" t="b">
         <v>0</v>
       </c>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="b">
+        <v>0</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5168,35 +5678,40 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
         <is>
           <t>2019-002829-29</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr">
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
         <is>
           <t>Combined Prevention of Sexually Transmitted Infections (STIs) in Men Who Have Sex with Men using oral TDF/FTC for HIV Pre-Exposure Prophylaxis (PrEP) 
  Prévention combinée des infections sexuellement transmissibles (IST) chez les hommes ayant des rapports sexuels avec des hommes utilisant le TDF/FTC par voie orale pour la prophylaxie préexposition au VIH (PrEP)</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>Doxyvac</t>
         </is>
       </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
       <c r="J103" t="b">
         <v>0</v>
       </c>
       <c r="K103" t="b">
         <v>0</v>
       </c>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="b">
+        <v>0</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/publipostage2/01kv58h76/liste_essais_cliniques_identifies_01kv58h76.xlsx
+++ b/publipostage2/01kv58h76/liste_essais_cliniques_identifies_01kv58h76.xlsx
@@ -55,22 +55,22 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟩</t>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📗</t>
   </si>
   <si>
     <t>rouge</t>
   </si>
   <si>
-    <t>noir</t>
+    <t>bleu</t>
   </si>
   <si>
     <t>orange</t>

--- a/publipostage2/01kv58h76/liste_essais_cliniques_identifies_01kv58h76.xlsx
+++ b/publipostage2/01kv58h76/liste_essais_cliniques_identifies_01kv58h76.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/01kv58h76/liste_essais_cliniques_identifies_01kv58h76.xlsx
+++ b/publipostage2/01kv58h76/liste_essais_cliniques_identifies_01kv58h76.xlsx
@@ -70,7 +70,7 @@
     <t>rouge</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>orange</t>
@@ -79,16 +79,16 @@
     <t>vert</t>
   </si>
   <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00121121</t>

--- a/publipostage2/01kv58h76/liste_essais_cliniques_identifies_01kv58h76.xlsx
+++ b/publipostage2/01kv58h76/liste_essais_cliniques_identifies_01kv58h76.xlsx
@@ -70,28 +70,34 @@
     <t>NCT00121121</t>
   </si>
   <si>
+    <t>NCT00120185</t>
+  </si>
+  <si>
     <t>NCT00196586</t>
   </si>
   <si>
-    <t>NCT00120185</t>
+    <t>NCT00118677</t>
+  </si>
+  <si>
+    <t>NCT00120367</t>
   </si>
   <si>
     <t>NCT00117494</t>
   </si>
   <si>
-    <t>NCT00118677</t>
+    <t>NCT00148863</t>
+  </si>
+  <si>
+    <t>NCT00122603</t>
   </si>
   <si>
     <t>NCT00121758</t>
   </si>
   <si>
-    <t>NCT00122603</t>
-  </si>
-  <si>
-    <t>NCT00148863</t>
-  </si>
-  <si>
-    <t>NCT00120367</t>
+    <t>NCT00528060</t>
+  </si>
+  <si>
+    <t>NCT00120757</t>
   </si>
   <si>
     <t>NCT00113282</t>
@@ -100,181 +106,178 @@
     <t>NCT00454337</t>
   </si>
   <si>
-    <t>NCT00528060</t>
-  </si>
-  <si>
-    <t>NCT00120757</t>
+    <t>NCT00302822</t>
   </si>
   <si>
     <t>NCT00122616</t>
   </si>
   <si>
-    <t>NCT00302822</t>
+    <t>NCT00115609</t>
   </si>
   <si>
     <t>NCT00460382</t>
   </si>
   <si>
+    <t>NCT00196664</t>
+  </si>
+  <si>
     <t>NCT00490074</t>
   </si>
   <si>
-    <t>NCT00196664</t>
-  </si>
-  <si>
-    <t>NCT00115609</t>
+    <t>NCT00536627</t>
+  </si>
+  <si>
+    <t>NCT00647205</t>
   </si>
   <si>
     <t>NCT01038401</t>
   </si>
   <si>
+    <t>NCT01008813</t>
+  </si>
+  <si>
+    <t>NCT00574652</t>
+  </si>
+  <si>
     <t>NCT00383734</t>
   </si>
   <si>
-    <t>NCT00647205</t>
-  </si>
-  <si>
-    <t>NCT00536627</t>
-  </si>
-  <si>
     <t>NCT01039220</t>
   </si>
   <si>
-    <t>NCT01008813</t>
-  </si>
-  <si>
-    <t>NCT00574652</t>
+    <t>NCT00657397</t>
+  </si>
+  <si>
+    <t>NCT00421551</t>
+  </si>
+  <si>
+    <t>NCT00944541</t>
   </si>
   <si>
     <t>NCT01164462</t>
   </si>
   <si>
-    <t>NCT00657397</t>
-  </si>
-  <si>
-    <t>NCT00944541</t>
-  </si>
-  <si>
-    <t>NCT00421551</t>
+    <t>NCT01413152</t>
+  </si>
+  <si>
+    <t>NCT00822315</t>
+  </si>
+  <si>
+    <t>NCT00480792</t>
+  </si>
+  <si>
+    <t>NCT00820118</t>
+  </si>
+  <si>
+    <t>NCT01065207</t>
+  </si>
+  <si>
+    <t>NCT00901524</t>
   </si>
   <si>
     <t>NCT00424814</t>
   </si>
   <si>
-    <t>NCT00820118</t>
-  </si>
-  <si>
-    <t>NCT00822315</t>
-  </si>
-  <si>
-    <t>NCT00901524</t>
-  </si>
-  <si>
-    <t>NCT00480792</t>
-  </si>
-  <si>
     <t>NCT00391638</t>
   </si>
   <si>
-    <t>NCT01413152</t>
-  </si>
-  <si>
-    <t>NCT01065207</t>
+    <t>NCT00265642</t>
+  </si>
+  <si>
+    <t>NCT00323804</t>
+  </si>
+  <si>
+    <t>NCT01033760</t>
   </si>
   <si>
     <t>NCT01226446</t>
   </si>
   <si>
-    <t>NCT00265642</t>
-  </si>
-  <si>
-    <t>NCT01033760</t>
+    <t>NCT00670839</t>
+  </si>
+  <si>
+    <t>NCT00116454</t>
+  </si>
+  <si>
+    <t>NCT01332955</t>
+  </si>
+  <si>
+    <t>NCT01022476</t>
   </si>
   <si>
     <t>NCT01066962</t>
   </si>
   <si>
-    <t>NCT01022476</t>
-  </si>
-  <si>
-    <t>NCT01332955</t>
-  </si>
-  <si>
-    <t>NCT00670839</t>
-  </si>
-  <si>
-    <t>NCT00323804</t>
-  </si>
-  <si>
-    <t>NCT00116454</t>
+    <t>NCT00918307</t>
   </si>
   <si>
     <t>NCT01725542</t>
   </si>
   <si>
+    <t>NCT01207986</t>
+  </si>
+  <si>
     <t>NCT01335529</t>
   </si>
   <si>
-    <t>NCT00918307</t>
-  </si>
-  <si>
     <t>NCT00946595</t>
   </si>
   <si>
-    <t>NCT01207986</t>
+    <t>NCT01605890</t>
+  </si>
+  <si>
+    <t>NCT01952587</t>
+  </si>
+  <si>
+    <t>NCT01463956</t>
   </si>
   <si>
     <t>NCT01453192</t>
   </si>
   <si>
+    <t>NCT02107365</t>
+  </si>
+  <si>
     <t>NCT02125500</t>
   </si>
   <si>
-    <t>NCT02107365</t>
-  </si>
-  <si>
-    <t>NCT01463956</t>
-  </si>
-  <si>
-    <t>NCT01605890</t>
-  </si>
-  <si>
-    <t>NCT01952587</t>
+    <t>NCT02093754</t>
+  </si>
+  <si>
+    <t>NCT02157311</t>
+  </si>
+  <si>
+    <t>NCT01473472</t>
+  </si>
+  <si>
+    <t>NCT01899196</t>
+  </si>
+  <si>
+    <t>NCT02384967</t>
+  </si>
+  <si>
+    <t>NCT02038842</t>
   </si>
   <si>
     <t>NCT01348308</t>
   </si>
   <si>
-    <t>NCT02384967</t>
-  </si>
-  <si>
-    <t>NCT02157311</t>
-  </si>
-  <si>
-    <t>NCT02093754</t>
-  </si>
-  <si>
-    <t>NCT01473472</t>
-  </si>
-  <si>
-    <t>NCT01899196</t>
-  </si>
-  <si>
-    <t>NCT02038842</t>
+    <t>NCT02099474</t>
+  </si>
+  <si>
+    <t>NCT02592174</t>
+  </si>
+  <si>
+    <t>NCT01426243</t>
   </si>
   <si>
     <t>NCT02527096</t>
   </si>
   <si>
-    <t>NCT02099474</t>
-  </si>
-  <si>
     <t>NCT01492985</t>
   </si>
   <si>
-    <t>NCT02592174</t>
-  </si>
-  <si>
-    <t>NCT01426243</t>
+    <t>NCT02212379</t>
   </si>
   <si>
     <t>NCT01942655</t>
@@ -283,21 +286,18 @@
     <t>NCT01895920</t>
   </si>
   <si>
+    <t>NCT02273765</t>
+  </si>
+  <si>
     <t>NCT01269632</t>
   </si>
   <si>
-    <t>NCT02273765</t>
-  </si>
-  <si>
-    <t>NCT02212379</t>
+    <t>NCT02906137</t>
   </si>
   <si>
     <t>NCT02738502</t>
   </si>
   <si>
-    <t>NCT02906137</t>
-  </si>
-  <si>
     <t>NCT02987530</t>
   </si>
   <si>
@@ -307,27 +307,27 @@
     <t>NCT03671291</t>
   </si>
   <si>
+    <t>NCT05311865</t>
+  </si>
+  <si>
     <t>NCT02287961</t>
   </si>
   <si>
-    <t>NCT05311865</t>
+    <t>NCT04133012</t>
   </si>
   <si>
     <t>NCT04824638</t>
   </si>
   <si>
-    <t>NCT04133012</t>
-  </si>
-  <si>
     <t>NCT04120415</t>
   </si>
   <si>
+    <t>NCT04597424</t>
+  </si>
+  <si>
     <t>NCT04842682</t>
   </si>
   <si>
-    <t>NCT04597424</t>
-  </si>
-  <si>
     <t>2007-003203-12</t>
   </si>
   <si>
@@ -337,12 +337,12 @@
     <t>2007-000670-23</t>
   </si>
   <si>
+    <t>2006-004039-31</t>
+  </si>
+  <si>
     <t>2009-016226-13</t>
   </si>
   <si>
-    <t>2006-004039-31</t>
-  </si>
-  <si>
     <t>2009-011171-76</t>
   </si>
   <si>
@@ -352,15 +352,15 @@
     <t>2008-000859-10</t>
   </si>
   <si>
+    <t>2009-015113-44</t>
+  </si>
+  <si>
     <t>2009-015121-37</t>
   </si>
   <si>
     <t>2009-014616-36</t>
   </si>
   <si>
-    <t>2009-015113-44</t>
-  </si>
-  <si>
     <t>2013-002607-33</t>
   </si>
   <si>
@@ -376,15 +376,15 @@
     <t>2006-003940-50</t>
   </si>
   <si>
+    <t>2019-002829-29</t>
+  </si>
+  <si>
     <t>2021-000509-26</t>
   </si>
   <si>
     <t>2017-000040-17</t>
   </si>
   <si>
-    <t>2019-002829-29</t>
-  </si>
-  <si>
     <t>2005</t>
   </si>
   <si>
@@ -445,28 +445,34 @@
     <t>A Phase Ib Vaccine Trial Evaluating the Safety and Immunogenicity of HIV Lipopeptides by Two Administration Routes (Intramuscular And Intradermal) in Healthy Adult Volunteers. ANRS VAC16 Trial</t>
   </si>
   <si>
+    <t>Study of the Immunological Efficacy of Using Subcutaneous Interleukin-2 (IL-2) in Antiretroviral Naïve HIV-1-Infected Subjects With a CD4 Cell Count Above 300/mm3. ANRS 119 Trial INTERSTART</t>
+  </si>
+  <si>
     <t>Pilot Study of Addition of IL-2 to Pegylated Interferon Alpha 2a and Ribavirin for the Treatment of Chronic Hepatitis C in HIV-HCV Coinfected Patients Non Responders to Three Months of Therapy With Pegylated Interferon Alpha 2a and Ribavirin. ANRS HC09 SECOIIA</t>
   </si>
   <si>
-    <t>Study of the Immunological Efficacy of Using Subcutaneous Interleukin-2 (IL-2) in Antiretroviral Naïve HIV-1-Infected Subjects With a CD4 Cell Count Above 300/mm3. ANRS 119 Trial INTERSTART</t>
+    <t>Long-Term Supervised Treatment Interruption in HIV-Infected Patients Who Started Antiretroviral Treatment With CD4 Over 350/mm3 and Plasma HIV RNA Below 50 000/mL ANRS 116 Trial SALTO</t>
+  </si>
+  <si>
+    <t>Early Intensification of Combination Antiretroviral Therapy Including FUZEON® in the Treatment of Progressive Multifocal Leucoencephalopathy During HIV-1 Infection ANRS 125 Trial</t>
   </si>
   <si>
     <t>Randomised Comparative Study of the Efficacy and Safety of Rosuvastatin and Pravastatin in Dyslipidemic Patients Treated With Antiretroviral Agents. Anrs 126</t>
   </si>
   <si>
-    <t>Long-Term Supervised Treatment Interruption in HIV-Infected Patients Who Started Antiretroviral Treatment With CD4 Over 350/mm3 and Plasma HIV RNA Below 50 000/mL ANRS 116 Trial SALTO</t>
+    <t>Pilot Study on Interferon Gamma in Association With Peg-Interferon Alpha 2a and Ribavirin Among Patients With a Chronic Hepatitis C and Non Responders to the Association of Peg-Interferon Alpha 2b or 2a and Ribavirin ANRS HC16 Gammatri</t>
+  </si>
+  <si>
+    <t>Efficacy and Safety of Regimens Restricted to a Combination of Two Boosted Protease Inhibitors as Potent Antiretroviral Therapy in HIV-1 Infected Patients. ANRS 127 2IP</t>
   </si>
   <si>
     <t>Randomised Double Blinded Phase II AIDS Vaccine Study Comparing Immunogenicity and Safety of 3 Doses of Lipopeptide (LIPO-5) Versus Placebo in Non Infected HIV Volunteers (ANRS VAC 18)</t>
   </si>
   <si>
-    <t>Efficacy and Safety of Regimens Restricted to a Combination of Two Boosted Protease Inhibitors as Potent Antiretroviral Therapy in HIV-1 Infected Patients. ANRS 127 2IP</t>
-  </si>
-  <si>
-    <t>Pilot Study on Interferon Gamma in Association With Peg-Interferon Alpha 2a and Ribavirin Among Patients With a Chronic Hepatitis C and Non Responders to the Association of Peg-Interferon Alpha 2b or 2a and Ribavirin ANRS HC16 Gammatri</t>
-  </si>
-  <si>
-    <t>Early Intensification of Combination Antiretroviral Therapy Including FUZEON® in the Treatment of Progressive Multifocal Leucoencephalopathy During HIV-1 Infection ANRS 125 Trial</t>
+    <t>Pilot Study to Measure Exposure to Atazanavir, as a Component of Pharmacokinetic Parameters and Adherence Measured With MEMS in Naive HIV-infected Patients Treated Once Daily With Atazanavir Combined to Ritonavir and to Tenofovir/Emtricitabine. ANRS 134 Cophar 3</t>
+  </si>
+  <si>
+    <t>Efficacy of Alendronate Versus Placebo in the Treatment of HIV-1 Associated Osteoporosis, a Multicenter, Randomized, Controlled Trial. ANRS 120 Fosivir</t>
   </si>
   <si>
     <t>Study of the Immunological Efficacy of Adding Subcutaneous Interleukin-2 (IL-2) to an Optimized Antiretroviral Regimen in HIV-1-infected Subjects Experiencing Therapeutic Failure on an Ongoing Antiretroviral Combination With a CD4 Cell Count ≤ 200/mm3 ANRS 123 Trial</t>
@@ -475,232 +481,226 @@
     <t>Randomized Non-inferiority Study Comparing a Strategy Maintaining Current Enfuvirtide-based Antiretroviral Therapy to a Strategy Replacing Enfuvirtide by an Integrase Inhibitor (Raltegravir) in HIV-1 Infected Subjects With Plasma Hiv-1 RNA Levels Below 400 Copies Per ml.ANRS 138 EASIER</t>
   </si>
   <si>
-    <t>Pilot Study to Measure Exposure to Atazanavir, as a Component of Pharmacokinetic Parameters and Adherence Measured With MEMS in Naive HIV-infected Patients Treated Once Daily With Atazanavir Combined to Ritonavir and to Tenofovir/Emtricitabine. ANRS 134 Cophar 3</t>
-  </si>
-  <si>
-    <t>Efficacy of Alendronate Versus Placebo in the Treatment of HIV-1 Associated Osteoporosis, a Multicenter, Randomized, Controlled Trial. ANRS 120 Fosivir</t>
-  </si>
-  <si>
     <t>Pharmacocinétique de l’atazanavir chez des patients infectés par le VIH, traités en première ligne par l’association atazanavir+ritonavir et emtricitabine+ténofovir en prise unique.</t>
   </si>
   <si>
     <t>Essai randomisé de non-infériorité comparant une stratégie de maintien du traitement antirétroviral en cours à une stratégie de substitution de l’enfuvirtide par un inhibiteur de l’intégrase (MK 0518) chez des sujets infectés par le VIH-1, ayant un ARN VIH-1 plasmatique inférieur à 400 copies/ml.</t>
   </si>
   <si>
+    <t>Essai pilote évaluant un traitement antirétroviral associant le MK-0518, le darunavir/ritonavir (TMC114/r) et l’etravirine (TMC125) chez les patients infectés par le VIH-1, en échec virologique et porteurs de virus multi-résistants.</t>
+  </si>
+  <si>
+    <t>Enfuvirtide for the Initial Phase of Antiretroviral Therapy in HIV-infected Patients With High Risk of Clinical Progression : ANRS 130 APOLLO</t>
+  </si>
+  <si>
     <t>Efficacy of Pegylated Interferon on Liver Fibrosis in Co-infected Patient With HIV and C Hepatitis Who Failed to Active Treatment for HCV. ANRSHC12 Fibrostop</t>
   </si>
   <si>
-    <t>Enfuvirtide for the Initial Phase of Antiretroviral Therapy in HIV-infected Patients With High Risk of Clinical Progression : ANRS 130 APOLLO</t>
+    <t>Pilot Trial Evaluating Once Daily Triple Combination Antiretroviral Therapy With Tenofovir-Emtricitabine and Efavirenz in HIV-1 Infected Patients With Mycobacterium Tuberculosis Infection ANRS129 BKVIR</t>
   </si>
   <si>
     <t>Prospective Clinical Trial to Assess Safety and Efficacy of DRV/r(TMC 114/r), ETV(TMC 125) and MK-0518 in Addition to OBT in HIV-1 Infected Patients With Limited to No Treatment Options ANRS 139 TRIO</t>
   </si>
   <si>
+    <t>Assessment of the Efficacy of Paroxetine in the Prevention of Depressive Syndrome in Patients With Chronic Hepatitis C Treated by PEG-Interferon Alfa Plus Ribavirin. Multicentric, Double-Blinded, Randomized Study. ANRS HC18 Paropeg</t>
+  </si>
+  <si>
     <t>A Phase I/II Trial to Compare the Immunogenicity and Safety of 3 DNA C Prime Followed by 1 NYVAC C Boost to 2 DNA C Prime Followed by 2 NYVAC C Boost</t>
   </si>
   <si>
-    <t>Essai pilote évaluant un traitement antirétroviral associant le MK-0518, le darunavir/ritonavir (TMC114/r) et l’etravirine (TMC125) chez les patients infectés par le VIH-1, en échec virologique et porteurs de virus multi-résistants.</t>
-  </si>
-  <si>
-    <t>Assessment of the Efficacy of Paroxetine in the Prevention of Depressive Syndrome in Patients With Chronic Hepatitis C Treated by PEG-Interferon Alfa Plus Ribavirin. Multicentric, Double-Blinded, Randomized Study. ANRS HC18 Paropeg</t>
-  </si>
-  <si>
-    <t>Pilot Trial Evaluating Once Daily Triple Combination Antiretroviral Therapy With Tenofovir-Emtricitabine and Efavirenz in HIV-1 Infected Patients With Mycobacterium Tuberculosis Infection ANRS129 BKVIR</t>
+    <t>Randomised, Opened, Multicentre Phase I/II Trial in Patients With Chronic Hepatitis B With HBV VL &lt; 12 IU/ml and Under Treatment With NRTI, Which Evaluated Efficacy and Tolerance of Vaccination With Naked DNA on Viral Replication After Analogs' Treatment Interruption. ANRS HB02 VAC-ADN</t>
+  </si>
+  <si>
+    <t>Evaluation of 2 Interferon γ Assays (QuantiFERON TB Gold In-Tube® and T-SPOT.TB®) in the Diagnosis of Latent Tuberculosis in HIV-infected Patients.ANRS EP 40 QUANTI SPOT</t>
+  </si>
+  <si>
+    <t>Characterization of the Residual Replication of HIV-1 in the Gut-associated Lymphoid Tissue in Patients Receiving Effective Highly Active Antiretroviral Therapy: the ANRS EP 44 Study</t>
+  </si>
+  <si>
+    <t>A Randomized Phase II Trial to Evaluate the Immunogenicity and Safety of an Adjuvanted A(H1N1)v Influenza Vaccine and a Non-adjuvanted A(H1N1)v Influenza Vaccine in HIV-infected Patients (ANRS 151 Hifluvac)</t>
+  </si>
+  <si>
+    <t>ANRS HC 21 VASCU IL-2, Evaluation of the Cellular Immune Response, Clinical Efficacy and Tolerance After IL-2 Therapy in HCV-related Vasculitis Patients, Resistant to Conventional Therapy.</t>
+  </si>
+  <si>
+    <t>Randomized, Comparative, Multicenter, Patient-blinded Trial of the Safety and Efficacy of Intradermal Injections of Polylactic Acid (Newfill TM) Versus Polyacrylamid Gel (Eutrophill) in the Treatment of Facial Lipoatrophy in HIV-infected Patients ANRS 132 SMILE</t>
+  </si>
+  <si>
+    <t>Incidence of H1N1v Influenza-like Illness and Risk Factors for Serious Influenza Forms in HIV Infected Patients</t>
   </si>
   <si>
     <t>Etude de phase II randomisée évaluant l'immunogénicité et la tolérance du vaccin antigrippal A(H1N1)v adjuvanté comparativement au vaccin antigrippal A(H1N1)v non adjuvanté chez des patients infectés par le VIH (ANRS 151 HIFLUVAC)</t>
   </si>
   <si>
-    <t>Characterization of the Residual Replication of HIV-1 in the Gut-associated Lymphoid Tissue in Patients Receiving Effective Highly Active Antiretroviral Therapy: the ANRS EP 44 Study</t>
-  </si>
-  <si>
-    <t>Randomized, Comparative, Multicenter, Patient-blinded Trial of the Safety and Efficacy of Intradermal Injections of Polylactic Acid (Newfill TM) Versus Polyacrylamid Gel (Eutrophill) in the Treatment of Facial Lipoatrophy in HIV-infected Patients ANRS 132 SMILE</t>
-  </si>
-  <si>
-    <t>Evaluation of 2 Interferon γ Assays (QuantiFERON TB Gold In-Tube® and T-SPOT.TB®) in the Diagnosis of Latent Tuberculosis in HIV-infected Patients.ANRS EP 40 QUANTI SPOT</t>
-  </si>
-  <si>
-    <t>Randomised, Opened, Multicentre Phase I/II Trial in Patients With Chronic Hepatitis B With HBV VL &lt; 12 IU/ml and Under Treatment With NRTI, Which Evaluated Efficacy and Tolerance of Vaccination With Naked DNA on Viral Replication After Analogs' Treatment Interruption. ANRS HB02 VAC-ADN</t>
-  </si>
-  <si>
-    <t>Incidence of H1N1v Influenza-like Illness and Risk Factors for Serious Influenza Forms in HIV Infected Patients</t>
-  </si>
-  <si>
-    <t>A Randomized Phase II Trial to Evaluate the Immunogenicity and Safety of an Adjuvanted A(H1N1)v Influenza Vaccine and a Non-adjuvanted A(H1N1)v Influenza Vaccine in HIV-infected Patients (ANRS 151 Hifluvac)</t>
-  </si>
-  <si>
-    <t>ANRS HC 21 VASCU IL-2, Evaluation of the Cellular Immune Response, Clinical Efficacy and Tolerance After IL-2 Therapy in HCV-related Vasculitis Patients, Resistant to Conventional Therapy.</t>
-  </si>
-  <si>
     <t>Initialization of Methadone in Primary Care; a Randomized Intervention Research for Preventing HCV Transmission Practices. ANRS Methaville</t>
   </si>
   <si>
+    <t>Etude pilote évaluant l’intérêt d’une intensification par maraviroc (Celsentri®) chez des patients infectés par le VIH-1 présentant une restauration immunitaire insuffisante malgré une charge virale contrôlée par un traitement anti-rétroviral.</t>
+  </si>
+  <si>
+    <t>A Randomized Multicenter Study With Non-inferiority Hypothesis, Comparing the Availability to Maintain a Complete Viral Suppression by a Monotherapy of Darunavir/r to a NRTI Containing Regimen Including Darunavir/r, in HIV-1 Infected Patients With Previous Prolonged Complete Viral Suppression. ANRS 136 MONOI</t>
+  </si>
+  <si>
+    <t>Essai randomisé de non-infériorité comparant la capacité à maintenir le succès virologique d’une stratégie de traitement simplifié par une monothérapie d’inhibiteur de protéase boosté, le darunavir/r (TMC114/r), par rapport au maintien d’une trithérapie comportant 2 inhibiteurs nucléosidiques de la transcriptase inverse (INTI) associés au darunavir/r (TMC114/r) chez des patients infectés par le VIH-1 en succès immunovirologique.</t>
+  </si>
+  <si>
     <t>Pilot Study Evaluating Maraviroc (Celsentri®)Intensification Benefit in HIV Infected Patients Presenting Insufficient Immune Restoration Despite Controlled Viral Load With Antiretroviral Treatment. ANRS 145 MARIMUNO</t>
   </si>
   <si>
-    <t>Etude pilote évaluant l’intérêt d’une intensification par maraviroc (Celsentri®) chez des patients infectés par le VIH-1 présentant une restauration immunitaire insuffisante malgré une charge virale contrôlée par un traitement anti-rétroviral.</t>
-  </si>
-  <si>
-    <t>Essai randomisé de non-infériorité comparant la capacité à maintenir le succès virologique d’une stratégie de traitement simplifié par une monothérapie d’inhibiteur de protéase boosté, le darunavir/r (TMC114/r), par rapport au maintien d’une trithérapie comportant 2 inhibiteurs nucléosidiques de la transcriptase inverse (INTI) associés au darunavir/r (TMC114/r) chez des patients infectés par le VIH-1 en succès immunovirologique.</t>
-  </si>
-  <si>
-    <t>A Randomized Multicenter Study With Non-inferiority Hypothesis, Comparing the Availability to Maintain a Complete Viral Suppression by a Monotherapy of Darunavir/r to a NRTI Containing Regimen Including Darunavir/r, in HIV-1 Infected Patients With Previous Prolonged Complete Viral Suppression. ANRS 136 MONOI</t>
+    <t>EVALUATION DU RISQUE RESIDUEL DE TRANSMISSION DU VIH CHEZ DES HSH TRAITES AYANT UNE CHARGE VIRALE PLASMATIQUE INDETECTABLE</t>
+  </si>
+  <si>
+    <t>Phase II Open-label Randomized Multicenter Trial to Compare the Efficacy and Safety of Two Different Doses of Raltegravir and Efavirenz, All in Combination With Tenofovir and Lamivudine, in Naive HIV-1-infected Patients Receiving Rifampin for Active Tuberculosis</t>
+  </si>
+  <si>
+    <t>Open-label, Randomized, and Multicentric Phase III Clinical Trial Comparing Three Strategies of Vaccination Against the Virus of Hepatitis B in HIV-1-infected Patients With CD4-positive T-lymphocytes Counts Above 200 permm3 ANRS HB 03 VIHVAC-B</t>
+  </si>
+  <si>
+    <t>ARNS 141 TIPI : A Pilot Trial to Assess the Ability of an Intermittent Antiretroviral Therapy in Maintaining an Immunological Stability in Antiretroviral naïve HIV Infected Adults, With CD4 Count Above 500/mm3</t>
+  </si>
+  <si>
+    <t>ANRS HIV CONTROLLERS NATIONAL OBSERVATORY</t>
+  </si>
+  <si>
+    <t>ANRS HC20 Pilot Study, Multicenter, Assessing the Effectiveness of an Optimized Anti HCV (360μg/Week Induction of PegIFN-alpha2a + 18mg/kg/j of RBV for 6 Months and Then Depending on the Virological Response to S12, Elongation up S72 to the Dual Anti HCV, With Accompanying Measures) on Sustained Virological Response in Patients With HCV Genotype 1 and 4 Non Responders and Co-infected With HIV.</t>
   </si>
   <si>
     <t>Prevention of HIV1 Mother to Child Transmission Without Nucleoside Analogue Reverse Transcriptase Inhibitors in the Pre-partum Phase. A Multicenter Randomised Phase II/III Open Label Study With a Group of 100 Pregnant Women Receiving Lopinavir/Ritonavir and a Group of 50 Receiving Lopinavir/Ritonavir Plus Zidovudine and Lamivudine. ANRS 135 Primeva</t>
   </si>
   <si>
-    <t>ARNS 141 TIPI : A Pilot Trial to Assess the Ability of an Intermittent Antiretroviral Therapy in Maintaining an Immunological Stability in Antiretroviral naïve HIV Infected Adults, With CD4 Count Above 500/mm3</t>
-  </si>
-  <si>
-    <t>Phase II Open-label Randomized Multicenter Trial to Compare the Efficacy and Safety of Two Different Doses of Raltegravir and Efavirenz, All in Combination With Tenofovir and Lamivudine, in Naive HIV-1-infected Patients Receiving Rifampin for Active Tuberculosis</t>
-  </si>
-  <si>
-    <t>ANRS HC20 Pilot Study, Multicenter, Assessing the Effectiveness of an Optimized Anti HCV (360μg/Week Induction of PegIFN-alpha2a + 18mg/kg/j of RBV for 6 Months and Then Depending on the Virological Response to S12, Elongation up S72 to the Dual Anti HCV, With Accompanying Measures) on Sustained Virological Response in Patients With HCV Genotype 1 and 4 Non Responders and Co-infected With HIV.</t>
-  </si>
-  <si>
-    <t>Open-label, Randomized, and Multicentric Phase III Clinical Trial Comparing Three Strategies of Vaccination Against the Virus of Hepatitis B in HIV-1-infected Patients With CD4-positive T-lymphocytes Counts Above 200 permm3 ANRS HB 03 VIHVAC-B</t>
+    <t>Pilot Study on Efficacy and Tolerance of Peg-interferon Alpha-2a (Pegasys) Added to Tenofovir DF and Emtricitabine (Truvada) in AGHBe Positive HBV-HIV Co-infected Patients. ANRS HB 01 EMVIPEG.</t>
   </si>
   <si>
     <t>Etude pilote, multicentrique, évaluant l’efficacité d’un traitement anti VHC optimisé (induction par 360µg/S de PegIFN-alpha 2a + 18mg/kg/j de RBV pendant 6 mois puis en fonction de la réponse virologique à S12, allongement jusqu'à S72 de la bithérapie anti VHC, avec mesures d'accompagnement) sur la réponse virologique soutenue chez des patients VHC de génotype 1 et 4, non répondeurs et co-infectés par le VIH.</t>
   </si>
   <si>
-    <t>Pilot Study on Efficacy and Tolerance of Peg-interferon Alpha-2a (Pegasys) Added to Tenofovir DF and Emtricitabine (Truvada) in AGHBe Positive HBV-HIV Co-infected Patients. ANRS HB 01 EMVIPEG.</t>
-  </si>
-  <si>
-    <t>EVALUATION DU RISQUE RESIDUEL DE TRANSMISSION DU VIH CHEZ DES HSH TRAITES AYANT UNE CHARGE VIRALE PLASMATIQUE INDETECTABLE</t>
-  </si>
-  <si>
-    <t>ANRS HIV CONTROLLERS NATIONAL OBSERVATORY</t>
+    <t>Study of the Effects of a Sartan on Hepatic Fibrosis Progression in Chronic Viral Hepatitis C</t>
+  </si>
+  <si>
+    <t>Randomized, Double-blind, Placebo-controlled Multicenter Study Evaluating the Interest of a Long-term (3 Years) Treatment With Peginterferon Alfa-2b and Ribavirin on Liver Fibrosis in Non-responder Chronic Hepatitis C Patients.</t>
+  </si>
+  <si>
+    <t>Optimisation of Primary HIV1 Infection Treatment (ANRS 147 OPTIPRIM)</t>
   </si>
   <si>
     <t>Multicenter Open and Prospective Trial Assessing the Efficacy of Vitamin D Supplementation in Addition to Pegylated Interferon Plus Ribavirin in Null-Responders Patients With Chronic Viral Hepatitis C Genotype 1 or 4</t>
   </si>
   <si>
-    <t>Study of the Effects of a Sartan on Hepatic Fibrosis Progression in Chronic Viral Hepatitis C</t>
-  </si>
-  <si>
-    <t>Optimisation of Primary HIV1 Infection Treatment (ANRS 147 OPTIPRIM)</t>
+    <t>Open-label, Randomized, and Multicenter Phase III Clinical Trial Comparing Immunogenicity of Double-dose (40 µg at S0, S4 and S24), Versus Standard Dose Vaccination (20 µg at S0, S4 and S24), Against Hepatitis B Virus in HIV-1-infected Patients Without Any Previous Immune Response After Primary Immunization Plus One Single Boost</t>
+  </si>
+  <si>
+    <t>A Randomized and Multicenter Trial for Hepatocellular Carcinoma Adjuvant Treatment by Lipiocis</t>
+  </si>
+  <si>
+    <t>Pilot Study of PegInterferon-Ribavirin-Telaprevir Efficacy and Tolerability in HIV-HCV Coinfected Patients Who Had Previously Failed a PegInterferon-Ribavirin Regimen. (ANRS HC26 TelapreVIH)</t>
+  </si>
+  <si>
+    <t>An open-label randomised two-year trial comparing two first-line regimens in HIV-infected antiretroviral naïve subjects:  darunavir/r + tenofovir/emtricitabine vs. darunavir/r + raltegravir</t>
+  </si>
+  <si>
+    <t>Etude multicentrique randomisée ouverte comparant la réduction virale et la tolérance de l’association IFN alpha-2b XL + ribavirine versus IFN peg alpha-2b + ribavirine chez des patients atteints d’hépatite chronique C de génotype 1</t>
+  </si>
+  <si>
+    <t>A Pilot Study of Pharmacokinetics, Tolerance and Efficacy of Raltegravir Combined to Two Fully Active Molecules Among Nucleosi(ti)de Analogs and Enfuvirtide Before and After Liver Transplant in HIV Infected Patients With End Stage Liver Disease (ANRS 148 LIVERAL)</t>
+  </si>
+  <si>
+    <t>Etude pilote de la pharmacocinétique, de la tolérance et de l’efficacité du raltégravir associé à deux molécules actives parmi les analogues nucléosi(ti)diques et l’enfuvirtide, avant et après transplantation hépatique chez des patients VIH+ en insuffisance hépatique sévère.</t>
   </si>
   <si>
     <t>An Open-label Randomised Two-year Trial Comparing Two First-line Regimens in HIV-infected Antiretroviral naïve Subjects: Darunavir/r + Tenofovir/Emtricitabine vs. Darunavir/r + Raltegravir (ANRS 143/NEAT 001)</t>
   </si>
   <si>
-    <t>A Pilot Study of Pharmacokinetics, Tolerance and Efficacy of Raltegravir Combined to Two Fully Active Molecules Among Nucleosi(ti)de Analogs and Enfuvirtide Before and After Liver Transplant in HIV Infected Patients With End Stage Liver Disease (ANRS 148 LIVERAL)</t>
-  </si>
-  <si>
-    <t>Pilot Study of PegInterferon-Ribavirin-Telaprevir Efficacy and Tolerability in HIV-HCV Coinfected Patients Who Had Previously Failed a PegInterferon-Ribavirin Regimen. (ANRS HC26 TelapreVIH)</t>
-  </si>
-  <si>
-    <t>Etude multicentrique randomisée ouverte comparant la réduction virale et la tolérance de l’association IFN alpha-2b XL + ribavirine versus IFN peg alpha-2b + ribavirine chez des patients atteints d’hépatite chronique C de génotype 1</t>
-  </si>
-  <si>
-    <t>Open-label, Randomized, and Multicenter Phase III Clinical Trial Comparing Immunogenicity of Double-dose (40 µg at S0, S4 and S24), Versus Standard Dose Vaccination (20 µg at S0, S4 and S24), Against Hepatitis B Virus in HIV-1-infected Patients Without Any Previous Immune Response After Primary Immunization Plus One Single Boost</t>
-  </si>
-  <si>
-    <t>Randomized, Double-blind, Placebo-controlled Multicenter Study Evaluating the Interest of a Long-term (3 Years) Treatment With Peginterferon Alfa-2b and Ribavirin on Liver Fibrosis in Non-responder Chronic Hepatitis C Patients.</t>
-  </si>
-  <si>
-    <t>A Randomized and Multicenter Trial for Hepatocellular Carcinoma Adjuvant Treatment by Lipiocis</t>
-  </si>
-  <si>
-    <t>Etude pilote de la pharmacocinétique, de la tolérance et de l’efficacité du raltégravir associé à deux molécules actives parmi les analogues nucléosi(ti)diques et l’enfuvirtide, avant et après transplantation hépatique chez des patients VIH+ en insuffisance hépatique sévère.</t>
-  </si>
-  <si>
-    <t>An open-label randomised two-year trial comparing two first-line regimens in HIV-infected antiretroviral naïve subjects:  darunavir/r + tenofovir/emtricitabine vs. darunavir/r + raltegravir</t>
+    <t>Comparison of the Efficacy and Safety of Varenicline Versus Placebo for Smoking Cessation Among HIV-infected Patients. A Randomized Double Blind Controlled Trial</t>
   </si>
   <si>
     <t>Pilot Study to Assess the Efficacy and Tolerance to a QUadruple Therapy With Asunaprevir , Daclatasvir, Ribavirin and Pegylated Interferon Alpha-2a, in HIV-HCV Genotype 1 or 4 Coinfected Patients Previously Null Responders to a Standard Pegylated Interferon -Ribavirin Regimen</t>
   </si>
   <si>
+    <t>Early Lung Cancer Diagnosis in HIV Infected Population With an Important Smoking History With Low Dose CT: a Pilot Study</t>
+  </si>
+  <si>
     <t>Pilot Study to Assess the Efficacy and Safety of Boceprevir, in Combination With Peg-Interferon Alfa and Ribavirin, in Patients With HCV/HIV Co-infection Who Have Failed to a Previous Therapy With Peg-Interferon/Ribavirin</t>
   </si>
   <si>
-    <t>Comparison of the Efficacy and Safety of Varenicline Versus Placebo for Smoking Cessation Among HIV-infected Patients. A Randomized Double Blind Controlled Trial</t>
-  </si>
-  <si>
     <t>A Study Comparing Efficacy and Tolerance of Two Maintenance Strategies : a Monotherapy With Lopinavir/Ritonavir or a Single-tablet Triple Therapy by Efavirenz/Emtricitabin/Tenofovir in HIV-1 Infected Patients With HIV RNA Below 50 cp/mL</t>
   </si>
   <si>
-    <t>Early Lung Cancer Diagnosis in HIV Infected Population With an Important Smoking History With Low Dose CT: a Pilot Study</t>
+    <t>ANRS 159 VIH-2 : Trial Evaluating a First Line Combination Therapy With Raltegravir, Emtricitabine and Tenofovir in HIV-2 Infected Patients</t>
+  </si>
+  <si>
+    <t>Frequency and Functional Impact of the c.32A&gt;T Genetic Polymorphism of TLR7 in Women Infected With HIV-1 : the ANRS EP53 Study</t>
+  </si>
+  <si>
+    <t>Pilot Study on the Efficacy of Pegylated Interferon-Ribavirin-Boceprevir Triple Therapy in Patients Infected With Genotype 1 HCV With Cirrhosis and Awaiting Liver Transplantation (ANRS HC 29 BOCEPRETRANSPLANT)</t>
   </si>
   <si>
     <t>National, Multicenter, Phase III Prospective Trial About Clinical and Immunological Follow-up After Renal Transplantation in HIV-1 Infected Patients With End Stage Chronic Renal Insufficiency</t>
   </si>
   <si>
+    <t>Pilot Study to Assess Efficacy and Safety of a Quadruple Therapy With Asunaprevir, Daclatasvir, Ribavirin and Pegylated Interferon Alpha-2a in HCV Genotype 4-infected Patients Non-responders to Pegylated Interferon-Ribavirin Regimen</t>
+  </si>
+  <si>
     <t>Pilot Study to Assess Efficacy and Safety of Sofosbuvir/Ledipasvir (GS-5885) Fixed-dose Combination in NS3/4A Protease Inhibitor-experienced Subjects With HCV Genotype 1 Infection and HIV Co-infection</t>
   </si>
   <si>
-    <t>Pilot Study to Assess Efficacy and Safety of a Quadruple Therapy With Asunaprevir, Daclatasvir, Ribavirin and Pegylated Interferon Alpha-2a in HCV Genotype 4-infected Patients Non-responders to Pegylated Interferon-Ribavirin Regimen</t>
-  </si>
-  <si>
-    <t>Pilot Study on the Efficacy of Pegylated Interferon-Ribavirin-Boceprevir Triple Therapy in Patients Infected With Genotype 1 HCV With Cirrhosis and Awaiting Liver Transplantation (ANRS HC 29 BOCEPRETRANSPLANT)</t>
-  </si>
-  <si>
-    <t>ANRS 159 VIH-2 : Trial Evaluating a First Line Combination Therapy With Raltegravir, Emtricitabine and Tenofovir in HIV-2 Infected Patients</t>
-  </si>
-  <si>
-    <t>Frequency and Functional Impact of the c.32A&gt;T Genetic Polymorphism of TLR7 in Women Infected With HIV-1 : the ANRS EP53 Study</t>
+    <t>Assessing the Severity of Metabolic-related Liver Injuries in Aging HIV-monoinfected Patients: a European Multicentre Study</t>
+  </si>
+  <si>
+    <t>Evaluation of the Capacity of a Weekly Strategy of 4 Consecutive Days on Treatment Followed by 3 Days Off Treatment, in HIV-1 Infected Patients With Undetectable Viral Load for at Least 12 Months, to Maintain a Virological Success With This Intermittent Maintenance Therapy After a Successful Continuous Induction Therapy.</t>
+  </si>
+  <si>
+    <t>On Demand Antiretroviral Pre-exposure Prophylaxis for HIV Infection in Men Who Have Sex With Men</t>
+  </si>
+  <si>
+    <t>EPICARDIAL ADIPOSE TISSUE AND CORONARY RISK IN HIV-INFECTED PATIENTS</t>
+  </si>
+  <si>
+    <t>Phase II Trial Assessing the Efficacy of a Reduced Dose Strategy of Darunavir to 400 mg/d in HIV-1 Infected Patients Virologically Suppressed Under a Once Daily Regimen Including Darunavir 800 mg/d and Two Nucleoside Reverse Transcriptase Inhibitors (NRTI), to Maintain the Viral Load Lower Than 50 Copies / mL at 48 Weeks of Treatment</t>
+  </si>
+  <si>
+    <t>Phase I/II Open-label Randomized Multicenter Trial to Assess Immunogenicity and Safety of 4 Prime-boost Combinations of HIV Vaccine Candidates (MVA HIV-B/ LIPO-5; LIPO-5/MVA HIV-B; GTU®-MultiHIV B / LIPO-5; GTU®-MultiHIV B/MVA HIV-B) in Healthy Volunteers at Low Risk of HIV Infection</t>
   </si>
   <si>
     <t>Optimized Phase III Trial of Immuno-stimulation With Maraviroc, a CCR5 (Chemokine Receptor 5) Antagonist, Combined With Anti Retroviral Therapy in Advanced, Late Diagnosed HIV-1 Infected Patients With an AIDS-defining Event and/or CD4 (Cluster of Differentiation 4) Counts Below 200 Cells/mm³. ANRS 146 OPTIMAL</t>
   </si>
   <si>
-    <t>Phase II Trial Assessing the Efficacy of a Reduced Dose Strategy of Darunavir to 400 mg/d in HIV-1 Infected Patients Virologically Suppressed Under a Once Daily Regimen Including Darunavir 800 mg/d and Two Nucleoside Reverse Transcriptase Inhibitors (NRTI), to Maintain the Viral Load Lower Than 50 Copies / mL at 48 Weeks of Treatment</t>
-  </si>
-  <si>
-    <t>Evaluation of the Capacity of a Weekly Strategy of 4 Consecutive Days on Treatment Followed by 3 Days Off Treatment, in HIV-1 Infected Patients With Undetectable Viral Load for at Least 12 Months, to Maintain a Virological Success With This Intermittent Maintenance Therapy After a Successful Continuous Induction Therapy.</t>
-  </si>
-  <si>
-    <t>Assessing the Severity of Metabolic-related Liver Injuries in Aging HIV-monoinfected Patients: a European Multicentre Study</t>
-  </si>
-  <si>
-    <t>On Demand Antiretroviral Pre-exposure Prophylaxis for HIV Infection in Men Who Have Sex With Men</t>
-  </si>
-  <si>
-    <t>EPICARDIAL ADIPOSE TISSUE AND CORONARY RISK IN HIV-INFECTED PATIENTS</t>
-  </si>
-  <si>
-    <t>Phase I/II Open-label Randomized Multicenter Trial to Assess Immunogenicity and Safety of 4 Prime-boost Combinations of HIV Vaccine Candidates (MVA HIV-B/ LIPO-5; LIPO-5/MVA HIV-B; GTU®-MultiHIV B / LIPO-5; GTU®-MultiHIV B/MVA HIV-B) in Healthy Volunteers at Low Risk of HIV Infection</t>
+    <t>Evaluation of the Pharmacokinetic Properties and the Tolerance of Raltegravir During the Third Trimester of Pregnancy</t>
+  </si>
+  <si>
+    <t>Prevalence, Characteristics and Risk Factors of HIV-Associated Neurocognitive Disorders in Subjects Between the Ages of 55 and 70 Years: An Exposed/Unexposed Cross Sectional Study</t>
+  </si>
+  <si>
+    <t>The Yellow Fever Vaccine Immunity in HIV Infected Patients : Development of New Assays for Virological and Immunological Monitoring in HIV Infected Patient</t>
   </si>
   <si>
     <t>A Pilot Trial Evaluating Maintenance Therapy With Lamivudine(Epivir®) and Dolutegravir(Tivicay®) in Human Immunodeficiency Virus 1 (HIV-1) Infected Patients Virologically Suppressed With Triple HAART - ANRS 167 Lamidol</t>
   </si>
   <si>
-    <t>Evaluation of the Pharmacokinetic Properties and the Tolerance of Raltegravir During the Third Trimester of Pregnancy</t>
-  </si>
-  <si>
     <t>Evaluation of a Therapeutic Immunization Strategy Associating a DNA Vaccine (GTU-MultiHIV B) Followed by a Lipopeptide Vaccine (LIPO-5) in the Control of Viral Replication Following Antiretroviral Treatment Interruption in HIV-1 Infected Patients With a CD4 Cell Count ≥ 600/mm3</t>
   </si>
   <si>
-    <t>Prevalence, Characteristics and Risk Factors of HIV-Associated Neurocognitive Disorders in Subjects Between the Ages of 55 and 70 Years: An Exposed/Unexposed Cross Sectional Study</t>
-  </si>
-  <si>
-    <t>The Yellow Fever Vaccine Immunity in HIV Infected Patients : Development of New Assays for Virological and Immunological Monitoring in HIV Infected Patient</t>
+    <t>Dual Therapy Combining Raltegravir With Etravirine Maintains a High Level of Viral Suppression Over 96 Weeks in Long-term Experienced HIV-infected Individuals Over 45 Years on a PI-based Regimen: Results From the Phase II ANRS 163 ETRAL Study</t>
+  </si>
+  <si>
+    <t>ANRS RF002 Intestipax : Interleukin-23 (IL-23)/Interleukin-12 (IL-12) Imbalance and T Lymphocyte Polarization in HIV Infection</t>
   </si>
   <si>
     <t>ANRS SHS155 STIMAGO: Pilote study to evaluate the benefits and the risks of methylphenidate for the treatment of cocain dependence._x000D_ 
  ANRS SHS155 STIMAGO : Etude pilote pour l’évaluation des bénéfices et des risques du méthylphénidate pour la prise en charge de la dépendance à la cocaïne.</t>
   </si>
   <si>
-    <t>ANRS RF002 Intestipax : Interleukin-23 (IL-23)/Interleukin-12 (IL-12) Imbalance and T Lymphocyte Polarization in HIV Infection</t>
+    <t>Phase III Open-label Randomized Multicenter Trial to Assess the Non-inferiority of Raltegravir Compared With EFavirenz, Both in Combination With LAmivudine and TEnofovir, in ART-naïve HIV-1-infected Patients Receiving Rifampin for Active TuBerculosis</t>
   </si>
   <si>
     <t>Long Term Evaluation of Young Adults Born to HIV-infected Mothers. A Cohort of Young Adults Infected With HIV Since Birth or During Childhood</t>
   </si>
   <si>
-    <t>Phase III Open-label Randomized Multicenter Trial to Assess the Non-inferiority of Raltegravir Compared With EFavirenz, Both in Combination With LAmivudine and TEnofovir, in ART-naïve HIV-1-infected Patients Receiving Rifampin for Active TuBerculosis</t>
-  </si>
-  <si>
-    <t>Dual Therapy Combining Raltegravir With Etravirine Maintains a High Level of Viral Suppression Over 96 Weeks in Long-term Experienced HIV-infected Individuals Over 45 Years on a PI-based Regimen: Results From the Phase II ANRS 163 ETRAL Study</t>
+    <t>Altered Homing of T Lymphocytes to the Gut and Poor Immune Reconstitution of the Intestinal Mucosa in Treated HIV-infected Individuals</t>
   </si>
   <si>
     <t>An Open-label Phase II Pilot Study of Prevention of Perinatal Transmission of HIV-1 Without Nucleoside Reverse Transcriptase Inhibitors</t>
   </si>
   <si>
-    <t>Altered Homing of T Lymphocytes to the Gut and Poor Immune Reconstitution of the Intestinal Mucosa in Treated HIV-infected Individuals</t>
-  </si>
-  <si>
     <t>Phase III Multicenter Randomized Trial Evaluating in Patients At the Time of the Primary HIV-1 Infection, the Impact on the Viral Reservoir of a Combination Including Tenofovir/emtricitabine and Dolutegravir or Tenofovir/emtricitabine and Darunavir/cobicistat</t>
   </si>
   <si>
@@ -710,28 +710,32 @@
     <t>National Survey on Missed Opportunities to Pre-exposure Prophylaxis for Prevention of Human Immunodeficiency Virus-infection.</t>
   </si>
   <si>
+    <t>Transmission of Covid-19 During Clubbing Events in Closed Places</t>
+  </si>
+  <si>
     <t>Natural History of Anal Human Papillomavirus Infection and Associated Disease in HIV-infected Men Who Have Sex With Men: Towards an Evidence Base for the Prevention of Anal Cancer.</t>
   </si>
   <si>
-    <t>Transmission of Covid-19 During Clubbing Events in Closed Places</t>
+    <t>A Prospective Study Aiming to Determine the Cartography of Virological Reservoir Related to Antiretroviral Concentrations in Chronic HIV-1 Patients Treated with a First Line of Dolutegravir and Associated Nucleoside / Nucleotide Reverse Transcriptase Inhibitors (NRTIs).</t>
   </si>
   <si>
     <t>A Phase II Trial Assessing Immunogenicity and Safety of COVID-19 mRNA Vaccine BNT162b2 in Adult Volunteers With no History of SARS-CoV-2 Infection Administered With Two Doses of Vaccine (D1-D29) and in Adult Volunteers With Documented History of SARS-CoV-2 Infection (of More Than 5 Months) Administered With Only One Dose of Vaccine</t>
   </si>
   <si>
-    <t>A Prospective Study Aiming to Determine the Cartography of Virological Reservoir Related to Antiretroviral Concentrations in Chronic HIV-1 Patients Treated with a First Line of Dolutegravir and Associated Nucleoside / Nucleotide Reverse Transcriptase Inhibitors (NRTIs).</t>
-  </si>
-  <si>
     <t>EHVA T02 (European HIV Vaccine Alliance Therapeutic Trial 02)/ANRS VRI07: A Phase II Randomised, Placebo-controlled Trial of Vedolizumab With or Without Therapeutic HIV MVA Vaccine in Individuals Who Started Antiretrovirals During Primary or Chronic Infection</t>
   </si>
   <si>
+    <t>Combined Prevention of Sexually Transmitted Infections (STIs) in Men Who Have Sex With Men and Using Oral Tenofovir Disoproxil Fumarate/ Emtricitabine (TDF/FTC) for HIV Pre-Exposure Prophylaxis (PrEP)</t>
+  </si>
+  <si>
     <t>A Phase I Multicenter Double-blind Placebo Controlled Dose Escalation Trial of an Adjuvanted Anti-CD40 mAb Fused to Env GP140 HIV Clade C ZM-96 (CD40.HIVRI.Env) Vaccine Combined or Not With a DNA-HIV-PT123 HIV-1 Vaccine in Healthy Participants</t>
   </si>
   <si>
-    <t>Combined Prevention of Sexually Transmitted Infections (STIs) in Men Who Have Sex With Men and Using Oral Tenofovir Disoproxil Fumarate/ Emtricitabine (TDF/FTC) for HIV Pre-Exposure Prophylaxis (PrEP)</t>
-  </si>
-  <si>
     <t>ESSAI RANDOMISE MULTICENTRIQUE DE PHASE III COMPARANT L’IMMUNOGENICITE ET LA TOLERANCE DE TROIS SCHEMAS DE VACCINATION CONTRE LE VIRUS DE L’HEPATITE B CHEZ DES PATIENTS INFECTES PAR LE VIH AYANT DES LYMPHOCYTES T CD4 SUPERIEURS A 200/mm3</t>
+  </si>
+  <si>
+    <t>Combined Prevention of Sexually Transmitted Infections (STIs) in Men Who Have Sex with Men using oral TDF/FTC for HIV Pre-Exposure Prophylaxis (PrEP) 
+ Prévention combinée des infections sexuellement transmissibles (IST) chez les hommes ayant des rapports sexuels avec des hommes utilisant le TDF/FTC par voie orale pour la prophylaxie préexposition au VIH (PrEP)</t>
   </si>
   <si>
     <t>A phase II trial assessing immunogenicity and safety of COVID-19 mRNA Vaccine BNT162b2 in adult volunteers with no history of SARS CoV-2 infection administered with two doses of vaccine (D1-D29) and in adult volunteers with documented history of SARS CoV-2 infection (of more than 6 months) administered with only one dose of vaccine 
@@ -742,145 +746,141 @@
  Essai multicentrique, en ouvert, randomisé en 2 groupes parallèles, évaluant la non-infériorité d’un traitement de maintenance à 4 jours consécutifs sur 7 versus la poursuite du traitement antirétroviral en continu, chez des patients en succès thérapeutique sous ARV.</t>
   </si>
   <si>
-    <t>Combined Prevention of Sexually Transmitted Infections (STIs) in Men Who Have Sex with Men using oral TDF/FTC for HIV Pre-Exposure Prophylaxis (PrEP) 
- Prévention combinée des infections sexuellement transmissibles (IST) chez les hommes ayant des rapports sexuels avec des hommes utilisant le TDF/FTC par voie orale pour la prophylaxie préexposition au VIH (PrEP)</t>
+    <t>ANRS134COPHAR3</t>
   </si>
   <si>
     <t>EASIER</t>
   </si>
   <si>
-    <t>ANRS134COPHAR3</t>
-  </si>
-  <si>
     <t>COPHAR-3</t>
   </si>
   <si>
+    <t>TRIO</t>
+  </si>
+  <si>
     <t>ANRS139 TRIO</t>
   </si>
   <si>
     <t>EV03/ANRSVAC20</t>
   </si>
   <si>
-    <t>TRIO</t>
+    <t>VAC-ADN</t>
+  </si>
+  <si>
+    <t>EP 44</t>
+  </si>
+  <si>
+    <t>VASCU-IL2</t>
+  </si>
+  <si>
+    <t>ANRS 2H</t>
   </si>
   <si>
     <t>HIFLUVAC</t>
   </si>
   <si>
-    <t>EP 44</t>
-  </si>
-  <si>
-    <t>VAC-ADN</t>
-  </si>
-  <si>
-    <t>ANRS 2H</t>
-  </si>
-  <si>
-    <t>VASCU-IL2</t>
+    <t>Methaville</t>
+  </si>
+  <si>
+    <t>MARIMUNO</t>
+  </si>
+  <si>
+    <t>MONOI</t>
+  </si>
+  <si>
+    <t>145 MARIMUNO</t>
   </si>
   <si>
     <t>DRAG</t>
   </si>
   <si>
-    <t>Methaville</t>
-  </si>
-  <si>
-    <t>145 MARIMUNO</t>
-  </si>
-  <si>
-    <t>MARIMUNO</t>
-  </si>
-  <si>
-    <t>MONOI</t>
+    <t>EP 49 EVARIST</t>
+  </si>
+  <si>
+    <t>VIHVAC-B</t>
   </si>
   <si>
     <t>TIPI</t>
   </si>
   <si>
+    <t>ANRS CO18</t>
+  </si>
+  <si>
     <t>ETOC</t>
   </si>
   <si>
-    <t>VIHVAC-B</t>
-  </si>
-  <si>
     <t>HB01EMVIPEG</t>
   </si>
   <si>
-    <t>EP 49 EVARIST</t>
-  </si>
-  <si>
-    <t>ANRS CO18</t>
+    <t>Fibrosar</t>
   </si>
   <si>
     <t>ANRS VITAVIC</t>
   </si>
   <si>
-    <t>Fibrosar</t>
+    <t>B-BOOST</t>
+  </si>
+  <si>
+    <t>Lipiocis</t>
+  </si>
+  <si>
+    <t>TelapreVIH</t>
+  </si>
+  <si>
+    <t>COAT-IFN</t>
+  </si>
+  <si>
+    <t>LIVERAL</t>
   </si>
   <si>
     <t>ANRS 143</t>
   </si>
   <si>
-    <t>LIVERAL</t>
-  </si>
-  <si>
-    <t>TelapreVIH</t>
-  </si>
-  <si>
-    <t>COAT-IFN</t>
-  </si>
-  <si>
-    <t>B-BOOST</t>
-  </si>
-  <si>
-    <t>Lipiocis</t>
+    <t>Inter-ACTIV</t>
   </si>
   <si>
     <t>QUADRIH</t>
   </si>
   <si>
+    <t>EP48 HIV CHEST</t>
+  </si>
+  <si>
     <t>BocepreVIH</t>
   </si>
   <si>
-    <t>Inter-ACTIV</t>
-  </si>
-  <si>
     <t>ANRS 140 DREAM</t>
   </si>
   <si>
-    <t>EP48 HIV CHEST</t>
+    <t>VIH-2</t>
+  </si>
+  <si>
+    <t>X LIBRIS</t>
   </si>
   <si>
     <t>ANRS153TREVE</t>
   </si>
   <si>
-    <t>VIH-2</t>
-  </si>
-  <si>
-    <t>X LIBRIS</t>
+    <t>ANRS ECHAM</t>
+  </si>
+  <si>
+    <t>ANRS162-4D</t>
+  </si>
+  <si>
+    <t>IPERGAY</t>
+  </si>
+  <si>
+    <t>ANRS EP 52</t>
+  </si>
+  <si>
+    <t>DARULIGHT</t>
+  </si>
+  <si>
+    <t>VRI01</t>
   </si>
   <si>
     <t>OPTIMAL</t>
   </si>
   <si>
-    <t>DARULIGHT</t>
-  </si>
-  <si>
-    <t>ANRS162-4D</t>
-  </si>
-  <si>
-    <t>ANRS ECHAM</t>
-  </si>
-  <si>
-    <t>IPERGAY</t>
-  </si>
-  <si>
-    <t>ANRS EP 52</t>
-  </si>
-  <si>
-    <t>VRI01</t>
-  </si>
-  <si>
     <t>ANRS 160 RalFE</t>
   </si>
   <si>
@@ -888,49 +888,52 @@
   </si>
   <si>
     <t>EP46 NOVAA</t>
+  </si>
+  <si>
+    <t>INTESTIPAX</t>
   </si>
   <si>
     <t>ANRS SHS155 STIMAGO 
  ANRS SHS155 STIMAGO</t>
   </si>
   <si>
-    <t>INTESTIPAX</t>
-  </si>
-  <si>
     <t>TRANSBioHIV</t>
   </si>
   <si>
+    <t>REFLATE TB2</t>
+  </si>
+  <si>
     <t>CO19 COVERTE</t>
   </si>
   <si>
-    <t>REFLATE TB2</t>
+    <t>GALT</t>
   </si>
   <si>
     <t>MONOGEST</t>
   </si>
   <si>
-    <t>GALT</t>
-  </si>
-  <si>
     <t>OPTIPRIM-2</t>
   </si>
   <si>
     <t>ICONE</t>
   </si>
   <si>
+    <t>ITOC</t>
+  </si>
+  <si>
     <t>APACHES</t>
   </si>
   <si>
-    <t>ITOC</t>
+    <t>DOLUVOIR</t>
   </si>
   <si>
     <t>CoviCompareP</t>
   </si>
   <si>
-    <t>DOLUVOIR</t>
-  </si>
-  <si>
     <t>DOXYVAC</t>
+  </si>
+  <si>
+    <t>Doxyvac</t>
   </si>
   <si>
     <t>NA</t>
@@ -938,9 +941,6 @@
   <si>
     <t>QUATUOR 
  QUATUOR</t>
-  </si>
-  <si>
-    <t>Doxyvac</t>
   </si>
   <si>
     <t>BIOLOGICAL</t>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -1396,10 +1396,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -1431,7 +1431,7 @@
         <v>145</v>
       </c>
       <c r="I5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1451,7 +1451,7 @@
         <v>146</v>
       </c>
       <c r="I6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1471,7 +1471,7 @@
         <v>147</v>
       </c>
       <c r="I7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1531,15 +1531,15 @@
         <v>150</v>
       </c>
       <c r="I10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -1549,6 +1549,9 @@
       </c>
       <c r="G11" t="s">
         <v>151</v>
+      </c>
+      <c r="H11" t="s">
+        <v>242</v>
       </c>
       <c r="I11" t="s">
         <v>308</v>
@@ -1570,19 +1573,16 @@
       <c r="G12" t="s">
         <v>152</v>
       </c>
-      <c r="H12" t="s">
-        <v>242</v>
-      </c>
       <c r="I12" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1592,9 +1592,6 @@
       </c>
       <c r="G13" t="s">
         <v>153</v>
-      </c>
-      <c r="H13" t="s">
-        <v>243</v>
       </c>
       <c r="I13" t="s">
         <v>308</v>
@@ -1616,6 +1613,9 @@
       <c r="G14" t="s">
         <v>154</v>
       </c>
+      <c r="H14" t="s">
+        <v>243</v>
+      </c>
       <c r="I14" t="s">
         <v>308</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>156</v>
       </c>
       <c r="H16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1667,8 +1667,8 @@
       <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" t="s">
-        <v>30</v>
+      <c r="D17" t="s">
+        <v>106</v>
       </c>
       <c r="F17" t="s">
         <v>127</v>
@@ -1676,8 +1676,8 @@
       <c r="G17" t="s">
         <v>157</v>
       </c>
-      <c r="I17" t="s">
-        <v>307</v>
+      <c r="H17" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1688,7 +1688,7 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
         <v>127</v>
@@ -1702,13 +1702,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -1716,11 +1716,8 @@
       <c r="G19" t="s">
         <v>159</v>
       </c>
-      <c r="H19" t="s">
-        <v>245</v>
-      </c>
       <c r="I19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1731,7 +1728,7 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
         <v>127</v>
@@ -1739,22 +1736,19 @@
       <c r="G20" t="s">
         <v>160</v>
       </c>
-      <c r="H20" t="s">
-        <v>246</v>
-      </c>
       <c r="I20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>106</v>
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
       </c>
       <c r="F21" t="s">
         <v>127</v>
@@ -1763,7 +1757,10 @@
         <v>161</v>
       </c>
       <c r="H21" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="I21" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1802,8 +1799,11 @@
       <c r="G23" t="s">
         <v>163</v>
       </c>
+      <c r="H23" t="s">
+        <v>247</v>
+      </c>
       <c r="I23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1813,8 +1813,8 @@
       <c r="B24" t="s">
         <v>13</v>
       </c>
-      <c r="D24" t="s">
-        <v>107</v>
+      <c r="C24" t="s">
+        <v>36</v>
       </c>
       <c r="F24" t="s">
         <v>128</v>
@@ -1825,6 +1825,9 @@
       <c r="H24" t="s">
         <v>248</v>
       </c>
+      <c r="I24" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
@@ -1834,7 +1837,7 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
         <v>128</v>
@@ -1842,22 +1845,19 @@
       <c r="G25" t="s">
         <v>165</v>
       </c>
-      <c r="H25" t="s">
-        <v>249</v>
-      </c>
       <c r="I25" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
         <v>128</v>
@@ -1865,8 +1865,11 @@
       <c r="G26" t="s">
         <v>166</v>
       </c>
+      <c r="H26" t="s">
+        <v>249</v>
+      </c>
       <c r="I26" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1877,7 +1880,7 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
         <v>128</v>
@@ -1886,7 +1889,7 @@
         <v>167</v>
       </c>
       <c r="I27" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1897,7 +1900,10 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>107</v>
       </c>
       <c r="F28" t="s">
         <v>128</v>
@@ -1909,18 +1915,18 @@
         <v>250</v>
       </c>
       <c r="I28" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
         <v>128</v>
@@ -1928,11 +1934,8 @@
       <c r="G29" t="s">
         <v>169</v>
       </c>
-      <c r="H29" t="s">
-        <v>251</v>
-      </c>
       <c r="I29" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1943,13 +1946,16 @@
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
         <v>128</v>
       </c>
       <c r="G30" t="s">
         <v>170</v>
+      </c>
+      <c r="H30" t="s">
+        <v>251</v>
       </c>
       <c r="I30" t="s">
         <v>307</v>
@@ -1962,9 +1968,6 @@
       <c r="B31" t="s">
         <v>13</v>
       </c>
-      <c r="C31" t="s">
-        <v>42</v>
-      </c>
       <c r="D31" t="s">
         <v>108</v>
       </c>
@@ -1977,16 +1980,13 @@
       <c r="H31" t="s">
         <v>252</v>
       </c>
-      <c r="I31" t="s">
-        <v>308</v>
-      </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
         <v>43</v>
@@ -1994,54 +1994,51 @@
       <c r="F32" t="s">
         <v>129</v>
       </c>
+      <c r="G32" t="s">
+        <v>172</v>
+      </c>
       <c r="H32" t="s">
         <v>253</v>
       </c>
       <c r="I32" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
       </c>
       <c r="F33" t="s">
         <v>129</v>
       </c>
       <c r="G33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H33" t="s">
         <v>254</v>
       </c>
-      <c r="I33" t="s">
-        <v>308</v>
-      </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
         <v>129</v>
       </c>
       <c r="G34" t="s">
-        <v>173</v>
-      </c>
-      <c r="H34" t="s">
-        <v>255</v>
+        <v>174</v>
       </c>
       <c r="I34" t="s">
         <v>308</v>
@@ -2055,44 +2052,47 @@
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F35" t="s">
         <v>129</v>
       </c>
       <c r="G35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" t="s">
-        <v>110</v>
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
       </c>
       <c r="F36" t="s">
         <v>129</v>
       </c>
       <c r="G36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H36" t="s">
-        <v>257</v>
+        <v>256</v>
+      </c>
+      <c r="I36" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
         <v>46</v>
@@ -2100,19 +2100,19 @@
       <c r="F37" t="s">
         <v>129</v>
       </c>
-      <c r="G37" t="s">
-        <v>176</v>
+      <c r="H37" t="s">
+        <v>257</v>
       </c>
       <c r="I37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
         <v>47</v>
@@ -2123,16 +2123,19 @@
       <c r="G38" t="s">
         <v>177</v>
       </c>
+      <c r="H38" t="s">
+        <v>258</v>
+      </c>
       <c r="I38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
         <v>48</v>
@@ -2143,19 +2146,16 @@
       <c r="G39" t="s">
         <v>178</v>
       </c>
-      <c r="H39" t="s">
-        <v>258</v>
-      </c>
       <c r="I39" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
         <v>49</v>
@@ -2166,16 +2166,19 @@
       <c r="G40" t="s">
         <v>179</v>
       </c>
+      <c r="H40" t="s">
+        <v>259</v>
+      </c>
       <c r="I40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
         <v>50</v>
@@ -2187,7 +2190,7 @@
         <v>180</v>
       </c>
       <c r="H41" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I41" t="s">
         <v>308</v>
@@ -2195,10 +2198,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
         <v>51</v>
@@ -2210,7 +2213,7 @@
         <v>181</v>
       </c>
       <c r="H42" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I42" t="s">
         <v>307</v>
@@ -2218,13 +2221,13 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" t="s">
-        <v>111</v>
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
       </c>
       <c r="F43" t="s">
         <v>130</v>
@@ -2233,18 +2236,21 @@
         <v>182</v>
       </c>
       <c r="H43" t="s">
-        <v>259</v>
+        <v>262</v>
+      </c>
+      <c r="I43" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F44" t="s">
         <v>130</v>
@@ -2252,11 +2258,8 @@
       <c r="G44" t="s">
         <v>183</v>
       </c>
-      <c r="H44" t="s">
-        <v>261</v>
-      </c>
       <c r="I44" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2267,7 +2270,7 @@
         <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F45" t="s">
         <v>130</v>
@@ -2276,7 +2279,7 @@
         <v>184</v>
       </c>
       <c r="H45" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I45" t="s">
         <v>307</v>
@@ -2284,13 +2287,13 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" t="s">
-        <v>54</v>
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>111</v>
       </c>
       <c r="F46" t="s">
         <v>130</v>
@@ -2299,18 +2302,15 @@
         <v>185</v>
       </c>
       <c r="H46" t="s">
-        <v>263</v>
-      </c>
-      <c r="I46" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
         <v>55</v>
@@ -2344,11 +2344,8 @@
       <c r="G48" t="s">
         <v>187</v>
       </c>
-      <c r="H48" t="s">
-        <v>265</v>
-      </c>
       <c r="I48" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2388,7 +2385,7 @@
         <v>189</v>
       </c>
       <c r="H50" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I50" t="s">
         <v>308</v>
@@ -2396,10 +2393,10 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
         <v>59</v>
@@ -2411,18 +2408,18 @@
         <v>190</v>
       </c>
       <c r="H51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
         <v>60</v>
@@ -2434,21 +2431,21 @@
         <v>191</v>
       </c>
       <c r="H52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I52" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" t="s">
-        <v>112</v>
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>61</v>
       </c>
       <c r="F53" t="s">
         <v>131</v>
@@ -2457,18 +2454,21 @@
         <v>192</v>
       </c>
       <c r="H53" t="s">
-        <v>269</v>
+        <v>268</v>
+      </c>
+      <c r="I53" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" t="s">
-        <v>61</v>
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
+        <v>112</v>
       </c>
       <c r="F54" t="s">
         <v>131</v>
@@ -2476,22 +2476,16 @@
       <c r="G54" t="s">
         <v>193</v>
       </c>
-      <c r="H54" t="s">
-        <v>270</v>
-      </c>
-      <c r="I54" t="s">
-        <v>307</v>
-      </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" t="s">
-        <v>62</v>
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>113</v>
       </c>
       <c r="F55" t="s">
         <v>131</v>
@@ -2499,8 +2493,8 @@
       <c r="G55" t="s">
         <v>194</v>
       </c>
-      <c r="I55" t="s">
-        <v>307</v>
+      <c r="H55" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2511,7 +2505,7 @@
         <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F56" t="s">
         <v>131</v>
@@ -2520,7 +2514,7 @@
         <v>195</v>
       </c>
       <c r="H56" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I56" t="s">
         <v>308</v>
@@ -2534,7 +2528,7 @@
         <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F57" t="s">
         <v>131</v>
@@ -2543,18 +2537,18 @@
         <v>196</v>
       </c>
       <c r="H57" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" t="s">
-        <v>114</v>
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
       </c>
       <c r="F58" t="s">
         <v>131</v>
@@ -2562,13 +2556,19 @@
       <c r="G58" t="s">
         <v>197</v>
       </c>
+      <c r="H58" t="s">
+        <v>271</v>
+      </c>
+      <c r="I58" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
         <v>64</v>
@@ -2588,10 +2588,10 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
         <v>65</v>
@@ -2611,10 +2611,10 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
         <v>66</v>
@@ -2629,15 +2629,15 @@
         <v>274</v>
       </c>
       <c r="I61" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C62" t="s">
         <v>67</v>
@@ -2657,10 +2657,10 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -2675,15 +2675,15 @@
         <v>276</v>
       </c>
       <c r="I63" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
         <v>69</v>
@@ -2703,25 +2703,25 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
         <v>70</v>
       </c>
-      <c r="D65" t="s">
-        <v>115</v>
-      </c>
       <c r="F65" t="s">
         <v>133</v>
       </c>
       <c r="G65" t="s">
         <v>204</v>
       </c>
+      <c r="H65" t="s">
+        <v>278</v>
+      </c>
       <c r="I65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2741,7 +2741,7 @@
         <v>205</v>
       </c>
       <c r="I66" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2760,16 +2760,19 @@
       <c r="G67" t="s">
         <v>206</v>
       </c>
+      <c r="H67" t="s">
+        <v>279</v>
+      </c>
       <c r="I67" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
         <v>73</v>
@@ -2780,42 +2783,39 @@
       <c r="G68" t="s">
         <v>207</v>
       </c>
-      <c r="H68" t="s">
-        <v>278</v>
-      </c>
       <c r="I68" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
         <v>74</v>
       </c>
+      <c r="D69" t="s">
+        <v>115</v>
+      </c>
       <c r="F69" t="s">
         <v>133</v>
       </c>
       <c r="G69" t="s">
         <v>208</v>
       </c>
-      <c r="H69" t="s">
-        <v>279</v>
-      </c>
       <c r="I69" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
         <v>75</v>
@@ -2830,7 +2830,7 @@
         <v>280</v>
       </c>
       <c r="I70" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2858,10 +2858,10 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
         <v>77</v>
@@ -2899,15 +2899,15 @@
         <v>283</v>
       </c>
       <c r="I73" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
         <v>79</v>
@@ -2950,10 +2950,10 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
         <v>81</v>
@@ -2968,42 +2968,45 @@
         <v>286</v>
       </c>
       <c r="I76" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
         <v>82</v>
       </c>
+      <c r="D77" t="s">
+        <v>116</v>
+      </c>
       <c r="F77" t="s">
         <v>135</v>
       </c>
       <c r="G77" t="s">
         <v>216</v>
       </c>
+      <c r="H77" t="s">
+        <v>287</v>
+      </c>
       <c r="I77" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s">
         <v>83</v>
       </c>
-      <c r="D78" t="s">
-        <v>116</v>
-      </c>
       <c r="F78" t="s">
         <v>135</v>
       </c>
@@ -3011,18 +3014,18 @@
         <v>217</v>
       </c>
       <c r="H78" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I78" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
         <v>84</v>
@@ -3033,16 +3036,19 @@
       <c r="G79" t="s">
         <v>218</v>
       </c>
+      <c r="H79" t="s">
+        <v>289</v>
+      </c>
       <c r="I79" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
         <v>85</v>
@@ -3053,19 +3059,16 @@
       <c r="G80" t="s">
         <v>219</v>
       </c>
-      <c r="H80" t="s">
-        <v>288</v>
-      </c>
       <c r="I80" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C81" t="s">
         <v>86</v>
@@ -3076,22 +3079,19 @@
       <c r="G81" t="s">
         <v>220</v>
       </c>
-      <c r="H81" t="s">
-        <v>289</v>
-      </c>
       <c r="I81" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" t="s">
-        <v>117</v>
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
+        <v>87</v>
       </c>
       <c r="F82" t="s">
         <v>136</v>
@@ -3099,8 +3099,8 @@
       <c r="G82" t="s">
         <v>221</v>
       </c>
-      <c r="H82" t="s">
-        <v>290</v>
+      <c r="I82" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3111,7 +3111,7 @@
         <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F83" t="s">
         <v>136</v>
@@ -3120,7 +3120,7 @@
         <v>222</v>
       </c>
       <c r="H83" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I83" t="s">
         <v>312</v>
@@ -3128,22 +3128,22 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84" t="s">
-        <v>88</v>
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
+        <v>117</v>
       </c>
       <c r="F84" t="s">
         <v>136</v>
       </c>
+      <c r="G84" t="s">
+        <v>223</v>
+      </c>
       <c r="H84" t="s">
-        <v>292</v>
-      </c>
-      <c r="I84" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3159,14 +3159,11 @@
       <c r="F85" t="s">
         <v>136</v>
       </c>
-      <c r="G85" t="s">
-        <v>223</v>
-      </c>
       <c r="H85" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I85" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3186,7 +3183,7 @@
         <v>224</v>
       </c>
       <c r="H86" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I86" t="s">
         <v>308</v>
@@ -3194,10 +3191,10 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s">
         <v>91</v>
@@ -3208,8 +3205,11 @@
       <c r="G87" t="s">
         <v>225</v>
       </c>
+      <c r="H87" t="s">
+        <v>294</v>
+      </c>
       <c r="I87" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3232,7 +3232,7 @@
         <v>295</v>
       </c>
       <c r="I88" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3255,7 +3255,7 @@
         <v>296</v>
       </c>
       <c r="I89" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3344,7 +3344,7 @@
         <v>299</v>
       </c>
       <c r="I93" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3367,7 +3367,7 @@
         <v>300</v>
       </c>
       <c r="I94" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3390,7 +3390,7 @@
         <v>301</v>
       </c>
       <c r="I95" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3413,7 +3413,7 @@
         <v>302</v>
       </c>
       <c r="I96" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3455,6 +3455,9 @@
       <c r="G98" t="s">
         <v>236</v>
       </c>
+      <c r="H98" t="s">
+        <v>303</v>
+      </c>
       <c r="I98" t="s">
         <v>307</v>
       </c>
@@ -3474,9 +3477,6 @@
       </c>
       <c r="G99" t="s">
         <v>237</v>
-      </c>
-      <c r="H99" t="s">
-        <v>303</v>
       </c>
       <c r="I99" t="s">
         <v>307</v>
@@ -3496,7 +3496,7 @@
         <v>238</v>
       </c>
       <c r="H100" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="101" spans="1:9">

--- a/publipostage2/01kv58h76/liste_essais_cliniques_identifies_01kv58h76.xlsx
+++ b/publipostage2/01kv58h76/liste_essais_cliniques_identifies_01kv58h76.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="338">
   <si>
     <t>statut</t>
   </si>
@@ -55,16 +55,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00121121</t>
@@ -76,205 +76,217 @@
     <t>NCT00196586</t>
   </si>
   <si>
+    <t>NCT00122603</t>
+  </si>
+  <si>
+    <t>NCT00148863</t>
+  </si>
+  <si>
+    <t>NCT00120367</t>
+  </si>
+  <si>
+    <t>NCT00117494</t>
+  </si>
+  <si>
     <t>NCT00118677</t>
   </si>
   <si>
-    <t>NCT00120367</t>
-  </si>
-  <si>
-    <t>NCT00117494</t>
-  </si>
-  <si>
-    <t>NCT00148863</t>
-  </si>
-  <si>
-    <t>NCT00122603</t>
-  </si>
-  <si>
     <t>NCT00121758</t>
   </si>
   <si>
+    <t>NCT00113282</t>
+  </si>
+  <si>
+    <t>NCT00454337</t>
+  </si>
+  <si>
     <t>NCT00528060</t>
   </si>
   <si>
     <t>NCT00120757</t>
   </si>
   <si>
-    <t>NCT00113282</t>
-  </si>
-  <si>
-    <t>NCT00454337</t>
-  </si>
-  <si>
     <t>NCT00302822</t>
   </si>
   <si>
+    <t>NCT00196664</t>
+  </si>
+  <si>
     <t>NCT00122616</t>
   </si>
   <si>
     <t>NCT00115609</t>
   </si>
   <si>
+    <t>NCT00490074</t>
+  </si>
+  <si>
     <t>NCT00460382</t>
   </si>
   <si>
-    <t>NCT00196664</t>
-  </si>
-  <si>
-    <t>NCT00490074</t>
+    <t>NCT00574652</t>
+  </si>
+  <si>
+    <t>NCT01038401</t>
+  </si>
+  <si>
+    <t>NCT00383734</t>
+  </si>
+  <si>
+    <t>NCT00647205</t>
+  </si>
+  <si>
+    <t>NCT01039220</t>
+  </si>
+  <si>
+    <t>NCT01008813</t>
   </si>
   <si>
     <t>NCT00536627</t>
   </si>
   <si>
-    <t>NCT00647205</t>
-  </si>
-  <si>
-    <t>NCT01038401</t>
-  </si>
-  <si>
-    <t>NCT01008813</t>
-  </si>
-  <si>
-    <t>NCT00574652</t>
-  </si>
-  <si>
-    <t>NCT00383734</t>
-  </si>
-  <si>
-    <t>NCT01039220</t>
-  </si>
-  <si>
     <t>NCT00657397</t>
   </si>
   <si>
     <t>NCT00421551</t>
   </si>
   <si>
+    <t>NCT01164462</t>
+  </si>
+  <si>
     <t>NCT00944541</t>
   </si>
   <si>
-    <t>NCT01164462</t>
+    <t>NCT00822315</t>
+  </si>
+  <si>
+    <t>NCT00820118</t>
   </si>
   <si>
     <t>NCT01413152</t>
   </si>
   <si>
-    <t>NCT00822315</t>
+    <t>NCT00424814</t>
   </si>
   <si>
     <t>NCT00480792</t>
   </si>
   <si>
-    <t>NCT00820118</t>
+    <t>NCT00901524</t>
+  </si>
+  <si>
+    <t>NCT00391638</t>
   </si>
   <si>
     <t>NCT01065207</t>
   </si>
   <si>
-    <t>NCT00901524</t>
-  </si>
-  <si>
-    <t>NCT00424814</t>
-  </si>
-  <si>
-    <t>NCT00391638</t>
+    <t>NCT01226446</t>
+  </si>
+  <si>
+    <t>NCT00670839</t>
+  </si>
+  <si>
+    <t>NCT01332955</t>
+  </si>
+  <si>
+    <t>NCT01066962</t>
+  </si>
+  <si>
+    <t>NCT01033760</t>
+  </si>
+  <si>
+    <t>NCT00323804</t>
+  </si>
+  <si>
+    <t>NCT00116454</t>
+  </si>
+  <si>
+    <t>NCT01022476</t>
   </si>
   <si>
     <t>NCT00265642</t>
   </si>
   <si>
-    <t>NCT00323804</t>
-  </si>
-  <si>
-    <t>NCT01033760</t>
-  </si>
-  <si>
-    <t>NCT01226446</t>
-  </si>
-  <si>
-    <t>NCT00670839</t>
-  </si>
-  <si>
-    <t>NCT00116454</t>
-  </si>
-  <si>
-    <t>NCT01332955</t>
-  </si>
-  <si>
-    <t>NCT01022476</t>
-  </si>
-  <si>
-    <t>NCT01066962</t>
+    <t>NCT00946595</t>
+  </si>
+  <si>
+    <t>NCT01207986</t>
+  </si>
+  <si>
+    <t>NCT01725542</t>
   </si>
   <si>
     <t>NCT00918307</t>
   </si>
   <si>
-    <t>NCT01725542</t>
-  </si>
-  <si>
-    <t>NCT01207986</t>
-  </si>
-  <si>
     <t>NCT01335529</t>
   </si>
   <si>
-    <t>NCT00946595</t>
+    <t>NCT01463956</t>
+  </si>
+  <si>
+    <t>NCT02125500</t>
+  </si>
+  <si>
+    <t>NCT01952587</t>
+  </si>
+  <si>
+    <t>NCT01127204</t>
+  </si>
+  <si>
+    <t>NCT02107365</t>
+  </si>
+  <si>
+    <t>NCT01453192</t>
   </si>
   <si>
     <t>NCT01605890</t>
   </si>
   <si>
-    <t>NCT01952587</t>
-  </si>
-  <si>
-    <t>NCT01463956</t>
-  </si>
-  <si>
-    <t>NCT01453192</t>
-  </si>
-  <si>
-    <t>NCT02107365</t>
-  </si>
-  <si>
-    <t>NCT02125500</t>
+    <t>NCT02038842</t>
+  </si>
+  <si>
+    <t>NCT02157311</t>
   </si>
   <si>
     <t>NCT02093754</t>
   </si>
   <si>
-    <t>NCT02157311</t>
+    <t>NCT01899196</t>
   </si>
   <si>
     <t>NCT01473472</t>
   </si>
   <si>
-    <t>NCT01899196</t>
-  </si>
-  <si>
     <t>NCT02384967</t>
   </si>
   <si>
-    <t>NCT02038842</t>
-  </si>
-  <si>
     <t>NCT01348308</t>
   </si>
   <si>
     <t>NCT02099474</t>
   </si>
   <si>
+    <t>NCT01492985</t>
+  </si>
+  <si>
     <t>NCT02592174</t>
   </si>
   <si>
+    <t>NCT02527096</t>
+  </si>
+  <si>
     <t>NCT01426243</t>
   </si>
   <si>
-    <t>NCT02527096</t>
-  </si>
-  <si>
-    <t>NCT01492985</t>
+    <t>NCT02273765</t>
+  </si>
+  <si>
+    <t>NCT01895920</t>
+  </si>
+  <si>
+    <t>NCT01269632</t>
   </si>
   <si>
     <t>NCT02212379</t>
@@ -283,55 +295,61 @@
     <t>NCT01942655</t>
   </si>
   <si>
-    <t>NCT01895920</t>
-  </si>
-  <si>
-    <t>NCT02273765</t>
-  </si>
-  <si>
-    <t>NCT01269632</t>
+    <t>NCT02987530</t>
+  </si>
+  <si>
+    <t>NCT02738502</t>
   </si>
   <si>
     <t>NCT02906137</t>
   </si>
   <si>
-    <t>NCT02738502</t>
-  </si>
-  <si>
-    <t>NCT02987530</t>
-  </si>
-  <si>
     <t>NCT04008927</t>
   </si>
   <si>
+    <t>NCT02626286</t>
+  </si>
+  <si>
     <t>NCT03671291</t>
   </si>
   <si>
+    <t>NCT03459157</t>
+  </si>
+  <si>
+    <t>NCT03870438</t>
+  </si>
+  <si>
+    <t>NCT02287961</t>
+  </si>
+  <si>
     <t>NCT05311865</t>
   </si>
   <si>
-    <t>NCT02287961</t>
+    <t>NCT04824638</t>
+  </si>
+  <si>
+    <t>NCT04120415</t>
   </si>
   <si>
     <t>NCT04133012</t>
   </si>
   <si>
-    <t>NCT04824638</t>
-  </si>
-  <si>
-    <t>NCT04120415</t>
+    <t>NCT04842682</t>
+  </si>
+  <si>
+    <t>NCT05385588</t>
   </si>
   <si>
     <t>NCT04597424</t>
   </si>
   <si>
-    <t>NCT04842682</t>
+    <t>2007-000162-20</t>
   </si>
   <si>
     <t>2007-003203-12</t>
   </si>
   <si>
-    <t>2007-000162-20</t>
+    <t>2005-004722-12</t>
   </si>
   <si>
     <t>2007-000670-23</t>
@@ -343,36 +361,54 @@
     <t>2009-016226-13</t>
   </si>
   <si>
+    <t>2006-005962-38</t>
+  </si>
+  <si>
     <t>2009-011171-76</t>
   </si>
   <si>
-    <t>2006-005962-38</t>
-  </si>
-  <si>
     <t>2008-000859-10</t>
   </si>
   <si>
+    <t>2009-015121-37</t>
+  </si>
+  <si>
     <t>2009-015113-44</t>
   </si>
   <si>
-    <t>2009-015121-37</t>
+    <t>2005-002937-11</t>
   </si>
   <si>
     <t>2009-014616-36</t>
   </si>
   <si>
+    <t>2012-002589-11</t>
+  </si>
+  <si>
     <t>2013-002607-33</t>
   </si>
   <si>
+    <t>2014-000146-29</t>
+  </si>
+  <si>
     <t>2013-004571-12</t>
   </si>
   <si>
-    <t>2013-002996-16</t>
+    <t>2015-001492-44</t>
+  </si>
+  <si>
+    <t>2016-001683-11</t>
   </si>
   <si>
     <t>2019-002818-40</t>
   </si>
   <si>
+    <t>2020-005888-31</t>
+  </si>
+  <si>
+    <t>2019-001961-34</t>
+  </si>
+  <si>
     <t>2006-003940-50</t>
   </si>
   <si>
@@ -451,232 +487,238 @@
     <t>Pilot Study of Addition of IL-2 to Pegylated Interferon Alpha 2a and Ribavirin for the Treatment of Chronic Hepatitis C in HIV-HCV Coinfected Patients Non Responders to Three Months of Therapy With Pegylated Interferon Alpha 2a and Ribavirin. ANRS HC09 SECOIIA</t>
   </si>
   <si>
+    <t>Efficacy and Safety of Regimens Restricted to a Combination of Two Boosted Protease Inhibitors as Potent Antiretroviral Therapy in HIV-1 Infected Patients. ANRS 127 2IP</t>
+  </si>
+  <si>
+    <t>Pilot Study on Interferon Gamma in Association With Peg-Interferon Alpha 2a and Ribavirin Among Patients With a Chronic Hepatitis C and Non Responders to the Association of Peg-Interferon Alpha 2b or 2a and Ribavirin ANRS HC16 Gammatri</t>
+  </si>
+  <si>
+    <t>Early Intensification of Combination Antiretroviral Therapy Including FUZEON® in the Treatment of Progressive Multifocal Leucoencephalopathy During HIV-1 Infection ANRS 125 Trial</t>
+  </si>
+  <si>
+    <t>Randomised Comparative Study of the Efficacy and Safety of Rosuvastatin and Pravastatin in Dyslipidemic Patients Treated With Antiretroviral Agents. Anrs 126</t>
+  </si>
+  <si>
     <t>Long-Term Supervised Treatment Interruption in HIV-Infected Patients Who Started Antiretroviral Treatment With CD4 Over 350/mm3 and Plasma HIV RNA Below 50 000/mL ANRS 116 Trial SALTO</t>
   </si>
   <si>
-    <t>Early Intensification of Combination Antiretroviral Therapy Including FUZEON® in the Treatment of Progressive Multifocal Leucoencephalopathy During HIV-1 Infection ANRS 125 Trial</t>
-  </si>
-  <si>
-    <t>Randomised Comparative Study of the Efficacy and Safety of Rosuvastatin and Pravastatin in Dyslipidemic Patients Treated With Antiretroviral Agents. Anrs 126</t>
-  </si>
-  <si>
-    <t>Pilot Study on Interferon Gamma in Association With Peg-Interferon Alpha 2a and Ribavirin Among Patients With a Chronic Hepatitis C and Non Responders to the Association of Peg-Interferon Alpha 2b or 2a and Ribavirin ANRS HC16 Gammatri</t>
-  </si>
-  <si>
-    <t>Efficacy and Safety of Regimens Restricted to a Combination of Two Boosted Protease Inhibitors as Potent Antiretroviral Therapy in HIV-1 Infected Patients. ANRS 127 2IP</t>
-  </si>
-  <si>
     <t>Randomised Double Blinded Phase II AIDS Vaccine Study Comparing Immunogenicity and Safety of 3 Doses of Lipopeptide (LIPO-5) Versus Placebo in Non Infected HIV Volunteers (ANRS VAC 18)</t>
   </si>
   <si>
+    <t>Study of the Immunological Efficacy of Adding Subcutaneous Interleukin-2 (IL-2) to an Optimized Antiretroviral Regimen in HIV-1-infected Subjects Experiencing Therapeutic Failure on an Ongoing Antiretroviral Combination With a CD4 Cell Count ≤ 200/mm3 ANRS 123 Trial</t>
+  </si>
+  <si>
+    <t>Randomized Non-inferiority Study Comparing a Strategy Maintaining Current Enfuvirtide-based Antiretroviral Therapy to a Strategy Replacing Enfuvirtide by an Integrase Inhibitor (Raltegravir) in HIV-1 Infected Subjects With Plasma Hiv-1 RNA Levels Below 400 Copies Per ml.ANRS 138 EASIER</t>
+  </si>
+  <si>
     <t>Pilot Study to Measure Exposure to Atazanavir, as a Component of Pharmacokinetic Parameters and Adherence Measured With MEMS in Naive HIV-infected Patients Treated Once Daily With Atazanavir Combined to Ritonavir and to Tenofovir/Emtricitabine. ANRS 134 Cophar 3</t>
   </si>
   <si>
     <t>Efficacy of Alendronate Versus Placebo in the Treatment of HIV-1 Associated Osteoporosis, a Multicenter, Randomized, Controlled Trial. ANRS 120 Fosivir</t>
   </si>
   <si>
-    <t>Study of the Immunological Efficacy of Adding Subcutaneous Interleukin-2 (IL-2) to an Optimized Antiretroviral Regimen in HIV-1-infected Subjects Experiencing Therapeutic Failure on an Ongoing Antiretroviral Combination With a CD4 Cell Count ≤ 200/mm3 ANRS 123 Trial</t>
-  </si>
-  <si>
-    <t>Randomized Non-inferiority Study Comparing a Strategy Maintaining Current Enfuvirtide-based Antiretroviral Therapy to a Strategy Replacing Enfuvirtide by an Integrase Inhibitor (Raltegravir) in HIV-1 Infected Subjects With Plasma Hiv-1 RNA Levels Below 400 Copies Per ml.ANRS 138 EASIER</t>
+    <t>Essai randomisé de non-infériorité comparant une stratégie de maintien du traitement antirétroviral en cours à une stratégie de substitution de l’enfuvirtide par un inhibiteur de l’intégrase (MK 0518) chez des sujets infectés par le VIH-1, ayant un ARN VIH-1 plasmatique inférieur à 400 copies/ml.</t>
   </si>
   <si>
     <t>Pharmacocinétique de l’atazanavir chez des patients infectés par le VIH, traités en première ligne par l’association atazanavir+ritonavir et emtricitabine+ténofovir en prise unique.</t>
   </si>
   <si>
-    <t>Essai randomisé de non-infériorité comparant une stratégie de maintien du traitement antirétroviral en cours à une stratégie de substitution de l’enfuvirtide par un inhibiteur de l’intégrase (MK 0518) chez des sujets infectés par le VIH-1, ayant un ARN VIH-1 plasmatique inférieur à 400 copies/ml.</t>
+    <t>Enfuvirtide for the Initial Phase of Antiretroviral Therapy in HIV-infected Patients With High Risk of Clinical Progression : ANRS 130 APOLLO</t>
+  </si>
+  <si>
+    <t>Assessment of the Efficacy of Paroxetine in the Prevention of Depressive Syndrome in Patients With Chronic Hepatitis C Treated by PEG-Interferon Alfa Plus Ribavirin. Multicentric, Double-Blinded, Randomized Study. ANRS HC18 Paropeg</t>
+  </si>
+  <si>
+    <t>Efficacy of Pegylated Interferon on Liver Fibrosis in Co-infected Patient With HIV and C Hepatitis Who Failed to Active Treatment for HCV. ANRSHC12 Fibrostop</t>
+  </si>
+  <si>
+    <t>Pilot Trial Evaluating Once Daily Triple Combination Antiretroviral Therapy With Tenofovir-Emtricitabine and Efavirenz in HIV-1 Infected Patients With Mycobacterium Tuberculosis Infection ANRS129 BKVIR</t>
+  </si>
+  <si>
+    <t>A Phase I/II Trial to Compare the Immunogenicity and Safety of 3 DNA C Prime Followed by 1 NYVAC C Boost to 2 DNA C Prime Followed by 2 NYVAC C Boost</t>
+  </si>
+  <si>
+    <t>Prospective Clinical Trial to Assess Safety and Efficacy of DRV/r(TMC 114/r), ETV(TMC 125) and MK-0518 in Addition to OBT in HIV-1 Infected Patients With Limited to No Treatment Options ANRS 139 TRIO</t>
   </si>
   <si>
     <t>Essai pilote évaluant un traitement antirétroviral associant le MK-0518, le darunavir/ritonavir (TMC114/r) et l’etravirine (TMC125) chez les patients infectés par le VIH-1, en échec virologique et porteurs de virus multi-résistants.</t>
   </si>
   <si>
-    <t>Enfuvirtide for the Initial Phase of Antiretroviral Therapy in HIV-infected Patients With High Risk of Clinical Progression : ANRS 130 APOLLO</t>
-  </si>
-  <si>
-    <t>Efficacy of Pegylated Interferon on Liver Fibrosis in Co-infected Patient With HIV and C Hepatitis Who Failed to Active Treatment for HCV. ANRSHC12 Fibrostop</t>
-  </si>
-  <si>
-    <t>Pilot Trial Evaluating Once Daily Triple Combination Antiretroviral Therapy With Tenofovir-Emtricitabine and Efavirenz in HIV-1 Infected Patients With Mycobacterium Tuberculosis Infection ANRS129 BKVIR</t>
-  </si>
-  <si>
-    <t>Prospective Clinical Trial to Assess Safety and Efficacy of DRV/r(TMC 114/r), ETV(TMC 125) and MK-0518 in Addition to OBT in HIV-1 Infected Patients With Limited to No Treatment Options ANRS 139 TRIO</t>
-  </si>
-  <si>
-    <t>Assessment of the Efficacy of Paroxetine in the Prevention of Depressive Syndrome in Patients With Chronic Hepatitis C Treated by PEG-Interferon Alfa Plus Ribavirin. Multicentric, Double-Blinded, Randomized Study. ANRS HC18 Paropeg</t>
-  </si>
-  <si>
-    <t>A Phase I/II Trial to Compare the Immunogenicity and Safety of 3 DNA C Prime Followed by 1 NYVAC C Boost to 2 DNA C Prime Followed by 2 NYVAC C Boost</t>
+    <t>ANRS HC 21 VASCU IL-2, Evaluation of the Cellular Immune Response, Clinical Efficacy and Tolerance After IL-2 Therapy in HCV-related Vasculitis Patients, Resistant to Conventional Therapy.</t>
+  </si>
+  <si>
+    <t>Characterization of the Residual Replication of HIV-1 in the Gut-associated Lymphoid Tissue in Patients Receiving Effective Highly Active Antiretroviral Therapy: the ANRS EP 44 Study</t>
+  </si>
+  <si>
+    <t>Randomized, Comparative, Multicenter, Patient-blinded Trial of the Safety and Efficacy of Intradermal Injections of Polylactic Acid (Newfill TM) Versus Polyacrylamid Gel (Eutrophill) in the Treatment of Facial Lipoatrophy in HIV-infected Patients ANRS 132 SMILE</t>
+  </si>
+  <si>
+    <t>Evaluation of 2 Interferon γ Assays (QuantiFERON TB Gold In-Tube® and T-SPOT.TB®) in the Diagnosis of Latent Tuberculosis in HIV-infected Patients.ANRS EP 40 QUANTI SPOT</t>
+  </si>
+  <si>
+    <t>Incidence of H1N1v Influenza-like Illness and Risk Factors for Serious Influenza Forms in HIV Infected Patients</t>
+  </si>
+  <si>
+    <t>A Randomized Phase II Trial to Evaluate the Immunogenicity and Safety of an Adjuvanted A(H1N1)v Influenza Vaccine and a Non-adjuvanted A(H1N1)v Influenza Vaccine in HIV-infected Patients (ANRS 151 Hifluvac)</t>
   </si>
   <si>
     <t>Randomised, Opened, Multicentre Phase I/II Trial in Patients With Chronic Hepatitis B With HBV VL &lt; 12 IU/ml and Under Treatment With NRTI, Which Evaluated Efficacy and Tolerance of Vaccination With Naked DNA on Viral Replication After Analogs' Treatment Interruption. ANRS HB02 VAC-ADN</t>
   </si>
   <si>
-    <t>Evaluation of 2 Interferon γ Assays (QuantiFERON TB Gold In-Tube® and T-SPOT.TB®) in the Diagnosis of Latent Tuberculosis in HIV-infected Patients.ANRS EP 40 QUANTI SPOT</t>
-  </si>
-  <si>
-    <t>Characterization of the Residual Replication of HIV-1 in the Gut-associated Lymphoid Tissue in Patients Receiving Effective Highly Active Antiretroviral Therapy: the ANRS EP 44 Study</t>
-  </si>
-  <si>
-    <t>A Randomized Phase II Trial to Evaluate the Immunogenicity and Safety of an Adjuvanted A(H1N1)v Influenza Vaccine and a Non-adjuvanted A(H1N1)v Influenza Vaccine in HIV-infected Patients (ANRS 151 Hifluvac)</t>
-  </si>
-  <si>
-    <t>ANRS HC 21 VASCU IL-2, Evaluation of the Cellular Immune Response, Clinical Efficacy and Tolerance After IL-2 Therapy in HCV-related Vasculitis Patients, Resistant to Conventional Therapy.</t>
-  </si>
-  <si>
-    <t>Randomized, Comparative, Multicenter, Patient-blinded Trial of the Safety and Efficacy of Intradermal Injections of Polylactic Acid (Newfill TM) Versus Polyacrylamid Gel (Eutrophill) in the Treatment of Facial Lipoatrophy in HIV-infected Patients ANRS 132 SMILE</t>
-  </si>
-  <si>
-    <t>Incidence of H1N1v Influenza-like Illness and Risk Factors for Serious Influenza Forms in HIV Infected Patients</t>
-  </si>
-  <si>
     <t>Etude de phase II randomisée évaluant l'immunogénicité et la tolérance du vaccin antigrippal A(H1N1)v adjuvanté comparativement au vaccin antigrippal A(H1N1)v non adjuvanté chez des patients infectés par le VIH (ANRS 151 HIFLUVAC)</t>
   </si>
   <si>
     <t>Initialization of Methadone in Primary Care; a Randomized Intervention Research for Preventing HCV Transmission Practices. ANRS Methaville</t>
   </si>
   <si>
+    <t>Essai randomisé de non-infériorité comparant la capacité à maintenir le succès virologique d’une stratégie de traitement simplifié par une monothérapie d’inhibiteur de protéase boosté, le darunavir/r (TMC114/r), par rapport au maintien d’une trithérapie comportant 2 inhibiteurs nucléosidiques de la transcriptase inverse (INTI) associés au darunavir/r (TMC114/r) chez des patients infectés par le VIH-1 en succès immunovirologique.</t>
+  </si>
+  <si>
     <t>Etude pilote évaluant l’intérêt d’une intensification par maraviroc (Celsentri®) chez des patients infectés par le VIH-1 présentant une restauration immunitaire insuffisante malgré une charge virale contrôlée par un traitement anti-rétroviral.</t>
   </si>
   <si>
     <t>A Randomized Multicenter Study With Non-inferiority Hypothesis, Comparing the Availability to Maintain a Complete Viral Suppression by a Monotherapy of Darunavir/r to a NRTI Containing Regimen Including Darunavir/r, in HIV-1 Infected Patients With Previous Prolonged Complete Viral Suppression. ANRS 136 MONOI</t>
   </si>
   <si>
-    <t>Essai randomisé de non-infériorité comparant la capacité à maintenir le succès virologique d’une stratégie de traitement simplifié par une monothérapie d’inhibiteur de protéase boosté, le darunavir/r (TMC114/r), par rapport au maintien d’une trithérapie comportant 2 inhibiteurs nucléosidiques de la transcriptase inverse (INTI) associés au darunavir/r (TMC114/r) chez des patients infectés par le VIH-1 en succès immunovirologique.</t>
-  </si>
-  <si>
     <t>Pilot Study Evaluating Maraviroc (Celsentri®)Intensification Benefit in HIV Infected Patients Presenting Insufficient Immune Restoration Despite Controlled Viral Load With Antiretroviral Treatment. ANRS 145 MARIMUNO</t>
   </si>
   <si>
+    <t>Phase II Open-label Randomized Multicenter Trial to Compare the Efficacy and Safety of Two Different Doses of Raltegravir and Efavirenz, All in Combination With Tenofovir and Lamivudine, in Naive HIV-1-infected Patients Receiving Rifampin for Active Tuberculosis</t>
+  </si>
+  <si>
+    <t>ARNS 141 TIPI : A Pilot Trial to Assess the Ability of an Intermittent Antiretroviral Therapy in Maintaining an Immunological Stability in Antiretroviral naïve HIV Infected Adults, With CD4 Count Above 500/mm3</t>
+  </si>
+  <si>
     <t>EVALUATION DU RISQUE RESIDUEL DE TRANSMISSION DU VIH CHEZ DES HSH TRAITES AYANT UNE CHARGE VIRALE PLASMATIQUE INDETECTABLE</t>
   </si>
   <si>
-    <t>Phase II Open-label Randomized Multicenter Trial to Compare the Efficacy and Safety of Two Different Doses of Raltegravir and Efavirenz, All in Combination With Tenofovir and Lamivudine, in Naive HIV-1-infected Patients Receiving Rifampin for Active Tuberculosis</t>
+    <t>Prevention of HIV1 Mother to Child Transmission Without Nucleoside Analogue Reverse Transcriptase Inhibitors in the Pre-partum Phase. A Multicenter Randomised Phase II/III Open Label Study With a Group of 100 Pregnant Women Receiving Lopinavir/Ritonavir and a Group of 50 Receiving Lopinavir/Ritonavir Plus Zidovudine and Lamivudine. ANRS 135 Primeva</t>
   </si>
   <si>
     <t>Open-label, Randomized, and Multicentric Phase III Clinical Trial Comparing Three Strategies of Vaccination Against the Virus of Hepatitis B in HIV-1-infected Patients With CD4-positive T-lymphocytes Counts Above 200 permm3 ANRS HB 03 VIHVAC-B</t>
   </si>
   <si>
-    <t>ARNS 141 TIPI : A Pilot Trial to Assess the Ability of an Intermittent Antiretroviral Therapy in Maintaining an Immunological Stability in Antiretroviral naïve HIV Infected Adults, With CD4 Count Above 500/mm3</t>
+    <t>ANRS HC20 Pilot Study, Multicenter, Assessing the Effectiveness of an Optimized Anti HCV (360μg/Week Induction of PegIFN-alpha2a + 18mg/kg/j of RBV for 6 Months and Then Depending on the Virological Response to S12, Elongation up S72 to the Dual Anti HCV, With Accompanying Measures) on Sustained Virological Response in Patients With HCV Genotype 1 and 4 Non Responders and Co-infected With HIV.</t>
+  </si>
+  <si>
+    <t>Etude pilote, multicentrique, évaluant l’efficacité d’un traitement anti VHC optimisé (induction par 360µg/S de PegIFN-alpha 2a + 18mg/kg/j de RBV pendant 6 mois puis en fonction de la réponse virologique à S12, allongement jusqu'à S72 de la bithérapie anti VHC, avec mesures d'accompagnement) sur la réponse virologique soutenue chez des patients VHC de génotype 1 et 4, non répondeurs et co-infectés par le VIH.</t>
+  </si>
+  <si>
+    <t>Pilot Study on Efficacy and Tolerance of Peg-interferon Alpha-2a (Pegasys) Added to Tenofovir DF and Emtricitabine (Truvada) in AGHBe Positive HBV-HIV Co-infected Patients. ANRS HB 01 EMVIPEG.</t>
   </si>
   <si>
     <t>ANRS HIV CONTROLLERS NATIONAL OBSERVATORY</t>
   </si>
   <si>
-    <t>ANRS HC20 Pilot Study, Multicenter, Assessing the Effectiveness of an Optimized Anti HCV (360μg/Week Induction of PegIFN-alpha2a + 18mg/kg/j of RBV for 6 Months and Then Depending on the Virological Response to S12, Elongation up S72 to the Dual Anti HCV, With Accompanying Measures) on Sustained Virological Response in Patients With HCV Genotype 1 and 4 Non Responders and Co-infected With HIV.</t>
-  </si>
-  <si>
-    <t>Prevention of HIV1 Mother to Child Transmission Without Nucleoside Analogue Reverse Transcriptase Inhibitors in the Pre-partum Phase. A Multicenter Randomised Phase II/III Open Label Study With a Group of 100 Pregnant Women Receiving Lopinavir/Ritonavir and a Group of 50 Receiving Lopinavir/Ritonavir Plus Zidovudine and Lamivudine. ANRS 135 Primeva</t>
-  </si>
-  <si>
-    <t>Pilot Study on Efficacy and Tolerance of Peg-interferon Alpha-2a (Pegasys) Added to Tenofovir DF and Emtricitabine (Truvada) in AGHBe Positive HBV-HIV Co-infected Patients. ANRS HB 01 EMVIPEG.</t>
-  </si>
-  <si>
-    <t>Etude pilote, multicentrique, évaluant l’efficacité d’un traitement anti VHC optimisé (induction par 360µg/S de PegIFN-alpha 2a + 18mg/kg/j de RBV pendant 6 mois puis en fonction de la réponse virologique à S12, allongement jusqu'à S72 de la bithérapie anti VHC, avec mesures d'accompagnement) sur la réponse virologique soutenue chez des patients VHC de génotype 1 et 4, non répondeurs et co-infectés par le VIH.</t>
+    <t>Etude multicentrique randomisée ouverte comparant la réduction virale et la tolérance de l’association IFN alpha-2b XL + ribavirine versus IFN peg alpha-2b + ribavirine chez des patients atteints d’hépatite chronique C de génotype 1</t>
+  </si>
+  <si>
+    <t>Multicenter Open and Prospective Trial Assessing the Efficacy of Vitamin D Supplementation in Addition to Pegylated Interferon Plus Ribavirin in Null-Responders Patients With Chronic Viral Hepatitis C Genotype 1 or 4</t>
+  </si>
+  <si>
+    <t>Open-label, Randomized, and Multicenter Phase III Clinical Trial Comparing Immunogenicity of Double-dose (40 µg at S0, S4 and S24), Versus Standard Dose Vaccination (20 µg at S0, S4 and S24), Against Hepatitis B Virus in HIV-1-infected Patients Without Any Previous Immune Response After Primary Immunization Plus One Single Boost</t>
+  </si>
+  <si>
+    <t>Pilot Study of PegInterferon-Ribavirin-Telaprevir Efficacy and Tolerability in HIV-HCV Coinfected Patients Who Had Previously Failed a PegInterferon-Ribavirin Regimen. (ANRS HC26 TelapreVIH)</t>
+  </si>
+  <si>
+    <t>An Open-label Randomised Two-year Trial Comparing Two First-line Regimens in HIV-infected Antiretroviral naïve Subjects: Darunavir/r + Tenofovir/Emtricitabine vs. Darunavir/r + Raltegravir (ANRS 143/NEAT 001)</t>
+  </si>
+  <si>
+    <t>Optimisation of Primary HIV1 Infection Treatment (ANRS 147 OPTIPRIM)</t>
+  </si>
+  <si>
+    <t>Randomized, Double-blind, Placebo-controlled Multicenter Study Evaluating the Interest of a Long-term (3 Years) Treatment With Peginterferon Alfa-2b and Ribavirin on Liver Fibrosis in Non-responder Chronic Hepatitis C Patients.</t>
+  </si>
+  <si>
+    <t>A Randomized and Multicenter Trial for Hepatocellular Carcinoma Adjuvant Treatment by Lipiocis</t>
+  </si>
+  <si>
+    <t>A Pilot Study of Pharmacokinetics, Tolerance and Efficacy of Raltegravir Combined to Two Fully Active Molecules Among Nucleosi(ti)de Analogs and Enfuvirtide Before and After Liver Transplant in HIV Infected Patients With End Stage Liver Disease (ANRS 148 LIVERAL)</t>
+  </si>
+  <si>
+    <t>Etude pilote de la pharmacocinétique, de la tolérance et de l’efficacité du raltégravir associé à deux molécules actives parmi les analogues nucléosi(ti)diques et l’enfuvirtide, avant et après transplantation hépatique chez des patients VIH+ en insuffisance hépatique sévère.</t>
   </si>
   <si>
     <t>Study of the Effects of a Sartan on Hepatic Fibrosis Progression in Chronic Viral Hepatitis C</t>
   </si>
   <si>
-    <t>Randomized, Double-blind, Placebo-controlled Multicenter Study Evaluating the Interest of a Long-term (3 Years) Treatment With Peginterferon Alfa-2b and Ribavirin on Liver Fibrosis in Non-responder Chronic Hepatitis C Patients.</t>
-  </si>
-  <si>
-    <t>Optimisation of Primary HIV1 Infection Treatment (ANRS 147 OPTIPRIM)</t>
-  </si>
-  <si>
-    <t>Multicenter Open and Prospective Trial Assessing the Efficacy of Vitamin D Supplementation in Addition to Pegylated Interferon Plus Ribavirin in Null-Responders Patients With Chronic Viral Hepatitis C Genotype 1 or 4</t>
-  </si>
-  <si>
-    <t>Open-label, Randomized, and Multicenter Phase III Clinical Trial Comparing Immunogenicity of Double-dose (40 µg at S0, S4 and S24), Versus Standard Dose Vaccination (20 µg at S0, S4 and S24), Against Hepatitis B Virus in HIV-1-infected Patients Without Any Previous Immune Response After Primary Immunization Plus One Single Boost</t>
-  </si>
-  <si>
-    <t>A Randomized and Multicenter Trial for Hepatocellular Carcinoma Adjuvant Treatment by Lipiocis</t>
-  </si>
-  <si>
-    <t>Pilot Study of PegInterferon-Ribavirin-Telaprevir Efficacy and Tolerability in HIV-HCV Coinfected Patients Who Had Previously Failed a PegInterferon-Ribavirin Regimen. (ANRS HC26 TelapreVIH)</t>
-  </si>
-  <si>
-    <t>An open-label randomised two-year trial comparing two first-line regimens in HIV-infected antiretroviral naïve subjects:  darunavir/r + tenofovir/emtricitabine vs. darunavir/r + raltegravir</t>
-  </si>
-  <si>
-    <t>Etude multicentrique randomisée ouverte comparant la réduction virale et la tolérance de l’association IFN alpha-2b XL + ribavirine versus IFN peg alpha-2b + ribavirine chez des patients atteints d’hépatite chronique C de génotype 1</t>
-  </si>
-  <si>
-    <t>A Pilot Study of Pharmacokinetics, Tolerance and Efficacy of Raltegravir Combined to Two Fully Active Molecules Among Nucleosi(ti)de Analogs and Enfuvirtide Before and After Liver Transplant in HIV Infected Patients With End Stage Liver Disease (ANRS 148 LIVERAL)</t>
-  </si>
-  <si>
-    <t>Etude pilote de la pharmacocinétique, de la tolérance et de l’efficacité du raltégravir associé à deux molécules actives parmi les analogues nucléosi(ti)diques et l’enfuvirtide, avant et après transplantation hépatique chez des patients VIH+ en insuffisance hépatique sévère.</t>
-  </si>
-  <si>
-    <t>An Open-label Randomised Two-year Trial Comparing Two First-line Regimens in HIV-infected Antiretroviral naïve Subjects: Darunavir/r + Tenofovir/Emtricitabine vs. Darunavir/r + Raltegravir (ANRS 143/NEAT 001)</t>
+    <t>A Study Comparing Efficacy and Tolerance of Two Maintenance Strategies : a Monotherapy With Lopinavir/Ritonavir or a Single-tablet Triple Therapy by Efavirenz/Emtricitabin/Tenofovir in HIV-1 Infected Patients With HIV RNA Below 50 cp/mL</t>
+  </si>
+  <si>
+    <t>Early Lung Cancer Diagnosis in HIV Infected Population With an Important Smoking History With Low Dose CT: a Pilot Study</t>
+  </si>
+  <si>
+    <t>Pilot Study to Assess the Efficacy and Tolerance to a QUadruple Therapy With Asunaprevir , Daclatasvir, Ribavirin and Pegylated Interferon Alpha-2a, in HIV-HCV Genotype 1 or 4 Coinfected Patients Previously Null Responders to a Standard Pegylated Interferon -Ribavirin Regimen</t>
   </si>
   <si>
     <t>Comparison of the Efficacy and Safety of Varenicline Versus Placebo for Smoking Cessation Among HIV-infected Patients. A Randomized Double Blind Controlled Trial</t>
   </si>
   <si>
-    <t>Pilot Study to Assess the Efficacy and Tolerance to a QUadruple Therapy With Asunaprevir , Daclatasvir, Ribavirin and Pegylated Interferon Alpha-2a, in HIV-HCV Genotype 1 or 4 Coinfected Patients Previously Null Responders to a Standard Pegylated Interferon -Ribavirin Regimen</t>
-  </si>
-  <si>
-    <t>Early Lung Cancer Diagnosis in HIV Infected Population With an Important Smoking History With Low Dose CT: a Pilot Study</t>
-  </si>
-  <si>
     <t>Pilot Study to Assess the Efficacy and Safety of Boceprevir, in Combination With Peg-Interferon Alfa and Ribavirin, in Patients With HCV/HIV Co-infection Who Have Failed to a Previous Therapy With Peg-Interferon/Ribavirin</t>
   </si>
   <si>
-    <t>A Study Comparing Efficacy and Tolerance of Two Maintenance Strategies : a Monotherapy With Lopinavir/Ritonavir or a Single-tablet Triple Therapy by Efavirenz/Emtricitabin/Tenofovir in HIV-1 Infected Patients With HIV RNA Below 50 cp/mL</t>
+    <t>Pilot Study on the Efficacy of Pegylated Interferon-Ribavirin-Boceprevir Triple Therapy in Patients Infected With Genotype 1 HCV With Cirrhosis and Awaiting Liver Transplantation (ANRS HC 29 BOCEPRETRANSPLANT)</t>
+  </si>
+  <si>
+    <t>Pilot Study to Assess Efficacy and Safety of Sofosbuvir/Ledipasvir (GS-5885) Fixed-dose Combination in NS3/4A Protease Inhibitor-experienced Subjects With HCV Genotype 1 Infection and HIV Co-infection</t>
+  </si>
+  <si>
+    <t>Frequency and Functional Impact of the c.32A&gt;T Genetic Polymorphism of TLR7 in Women Infected With HIV-1 : the ANRS EP53 Study</t>
+  </si>
+  <si>
+    <t>Randomized Phase 3 Trial to Evaluate Two Simplified Antiretroviral Treatment Strategies in HIV Infected Children, Treated by Antiretroviral Triple Therapy Before One Year of Age, in Virological Success in Africa (Burkina Faso, Côte d'Ivoire, Rwanda)</t>
+  </si>
+  <si>
+    <t>Pilot Study to Assess Efficacy and Safety of a Quadruple Therapy With Asunaprevir, Daclatasvir, Ribavirin and Pegylated Interferon Alpha-2a in HCV Genotype 4-infected Patients Non-responders to Pegylated Interferon-Ribavirin Regimen</t>
+  </si>
+  <si>
+    <t>National, Multicenter, Phase III Prospective Trial About Clinical and Immunological Follow-up After Renal Transplantation in HIV-1 Infected Patients With End Stage Chronic Renal Insufficiency</t>
   </si>
   <si>
     <t>ANRS 159 VIH-2 : Trial Evaluating a First Line Combination Therapy With Raltegravir, Emtricitabine and Tenofovir in HIV-2 Infected Patients</t>
   </si>
   <si>
-    <t>Frequency and Functional Impact of the c.32A&gt;T Genetic Polymorphism of TLR7 in Women Infected With HIV-1 : the ANRS EP53 Study</t>
-  </si>
-  <si>
-    <t>Pilot Study on the Efficacy of Pegylated Interferon-Ribavirin-Boceprevir Triple Therapy in Patients Infected With Genotype 1 HCV With Cirrhosis and Awaiting Liver Transplantation (ANRS HC 29 BOCEPRETRANSPLANT)</t>
-  </si>
-  <si>
-    <t>National, Multicenter, Phase III Prospective Trial About Clinical and Immunological Follow-up After Renal Transplantation in HIV-1 Infected Patients With End Stage Chronic Renal Insufficiency</t>
-  </si>
-  <si>
-    <t>Pilot Study to Assess Efficacy and Safety of a Quadruple Therapy With Asunaprevir, Daclatasvir, Ribavirin and Pegylated Interferon Alpha-2a in HCV Genotype 4-infected Patients Non-responders to Pegylated Interferon-Ribavirin Regimen</t>
-  </si>
-  <si>
-    <t>Pilot Study to Assess Efficacy and Safety of Sofosbuvir/Ledipasvir (GS-5885) Fixed-dose Combination in NS3/4A Protease Inhibitor-experienced Subjects With HCV Genotype 1 Infection and HIV Co-infection</t>
+    <t>Phase I/II Open-label Randomized Multicenter Trial to Assess Immunogenicity and Safety of 4 Prime-boost Combinations of HIV Vaccine Candidates (MVA HIV-B/ LIPO-5; LIPO-5/MVA HIV-B; GTU®-MultiHIV B / LIPO-5; GTU®-MultiHIV B/MVA HIV-B) in Healthy Volunteers at Low Risk of HIV Infection</t>
+  </si>
+  <si>
+    <t>Evaluation of the Capacity of a Weekly Strategy of 4 Consecutive Days on Treatment Followed by 3 Days Off Treatment, in HIV-1 Infected Patients With Undetectable Viral Load for at Least 12 Months, to Maintain a Virological Success With This Intermittent Maintenance Therapy After a Successful Continuous Induction Therapy.</t>
   </si>
   <si>
     <t>Assessing the Severity of Metabolic-related Liver Injuries in Aging HIV-monoinfected Patients: a European Multicentre Study</t>
   </si>
   <si>
-    <t>Evaluation of the Capacity of a Weekly Strategy of 4 Consecutive Days on Treatment Followed by 3 Days Off Treatment, in HIV-1 Infected Patients With Undetectable Viral Load for at Least 12 Months, to Maintain a Virological Success With This Intermittent Maintenance Therapy After a Successful Continuous Induction Therapy.</t>
+    <t>EPICARDIAL ADIPOSE TISSUE AND CORONARY RISK IN HIV-INFECTED PATIENTS</t>
   </si>
   <si>
     <t>On Demand Antiretroviral Pre-exposure Prophylaxis for HIV Infection in Men Who Have Sex With Men</t>
   </si>
   <si>
-    <t>EPICARDIAL ADIPOSE TISSUE AND CORONARY RISK IN HIV-INFECTED PATIENTS</t>
-  </si>
-  <si>
     <t>Phase II Trial Assessing the Efficacy of a Reduced Dose Strategy of Darunavir to 400 mg/d in HIV-1 Infected Patients Virologically Suppressed Under a Once Daily Regimen Including Darunavir 800 mg/d and Two Nucleoside Reverse Transcriptase Inhibitors (NRTI), to Maintain the Viral Load Lower Than 50 Copies / mL at 48 Weeks of Treatment</t>
   </si>
   <si>
-    <t>Phase I/II Open-label Randomized Multicenter Trial to Assess Immunogenicity and Safety of 4 Prime-boost Combinations of HIV Vaccine Candidates (MVA HIV-B/ LIPO-5; LIPO-5/MVA HIV-B; GTU®-MultiHIV B / LIPO-5; GTU®-MultiHIV B/MVA HIV-B) in Healthy Volunteers at Low Risk of HIV Infection</t>
-  </si>
-  <si>
     <t>Optimized Phase III Trial of Immuno-stimulation With Maraviroc, a CCR5 (Chemokine Receptor 5) Antagonist, Combined With Anti Retroviral Therapy in Advanced, Late Diagnosed HIV-1 Infected Patients With an AIDS-defining Event and/or CD4 (Cluster of Differentiation 4) Counts Below 200 Cells/mm³. ANRS 146 OPTIMAL</t>
   </si>
   <si>
     <t>Evaluation of the Pharmacokinetic Properties and the Tolerance of Raltegravir During the Third Trimester of Pregnancy</t>
   </si>
   <si>
+    <t>Evaluation of a Therapeutic Immunization Strategy Associating a DNA Vaccine (GTU-MultiHIV B) Followed by a Lipopeptide Vaccine (LIPO-5) in the Control of Viral Replication Following Antiretroviral Treatment Interruption in HIV-1 Infected Patients With a CD4 Cell Count ≥ 600/mm3</t>
+  </si>
+  <si>
     <t>Prevalence, Characteristics and Risk Factors of HIV-Associated Neurocognitive Disorders in Subjects Between the Ages of 55 and 70 Years: An Exposed/Unexposed Cross Sectional Study</t>
   </si>
   <si>
+    <t>A Pilot Trial Evaluating Maintenance Therapy With Lamivudine(Epivir®) and Dolutegravir(Tivicay®) in Human Immunodeficiency Virus 1 (HIV-1) Infected Patients Virologically Suppressed With Triple HAART - ANRS 167 Lamidol</t>
+  </si>
+  <si>
     <t>The Yellow Fever Vaccine Immunity in HIV Infected Patients : Development of New Assays for Virological and Immunological Monitoring in HIV Infected Patient</t>
   </si>
   <si>
-    <t>A Pilot Trial Evaluating Maintenance Therapy With Lamivudine(Epivir®) and Dolutegravir(Tivicay®) in Human Immunodeficiency Virus 1 (HIV-1) Infected Patients Virologically Suppressed With Triple HAART - ANRS 167 Lamidol</t>
-  </si>
-  <si>
-    <t>Evaluation of a Therapeutic Immunization Strategy Associating a DNA Vaccine (GTU-MultiHIV B) Followed by a Lipopeptide Vaccine (LIPO-5) in the Control of Viral Replication Following Antiretroviral Treatment Interruption in HIV-1 Infected Patients With a CD4 Cell Count ≥ 600/mm3</t>
+    <t>Phase III Open-label Randomized Multicenter Trial to Assess the Non-inferiority of Raltegravir Compared With EFavirenz, Both in Combination With LAmivudine and TEnofovir, in ART-naïve HIV-1-infected Patients Receiving Rifampin for Active TuBerculosis</t>
+  </si>
+  <si>
+    <t>Long Term Evaluation of Young Adults Born to HIV-infected Mothers. A Cohort of Young Adults Infected With HIV Since Birth or During Childhood</t>
   </si>
   <si>
     <t>Dual Therapy Combining Raltegravir With Etravirine Maintains a High Level of Viral Suppression Over 96 Weeks in Long-term Experienced HIV-infected Individuals Over 45 Years on a PI-based Regimen: Results From the Phase II ANRS 163 ETRAL Study</t>
@@ -685,50 +727,59 @@
     <t>ANRS RF002 Intestipax : Interleukin-23 (IL-23)/Interleukin-12 (IL-12) Imbalance and T Lymphocyte Polarization in HIV Infection</t>
   </si>
   <si>
-    <t>ANRS SHS155 STIMAGO: Pilote study to evaluate the benefits and the risks of methylphenidate for the treatment of cocain dependence._x000D_ 
- ANRS SHS155 STIMAGO : Etude pilote pour l’évaluation des bénéfices et des risques du méthylphénidate pour la prise en charge de la dépendance à la cocaïne.</t>
-  </si>
-  <si>
-    <t>Phase III Open-label Randomized Multicenter Trial to Assess the Non-inferiority of Raltegravir Compared With EFavirenz, Both in Combination With LAmivudine and TEnofovir, in ART-naïve HIV-1-infected Patients Receiving Rifampin for Active TuBerculosis</t>
-  </si>
-  <si>
-    <t>Long Term Evaluation of Young Adults Born to HIV-infected Mothers. A Cohort of Young Adults Infected With HIV Since Birth or During Childhood</t>
+    <t>Phase III Multicenter Randomized Trial Evaluating in Patients At the Time of the Primary HIV-1 Infection, the Impact on the Viral Reservoir of a Combination Including Tenofovir/emtricitabine and Dolutegravir or Tenofovir/emtricitabine and Darunavir/cobicistat</t>
+  </si>
+  <si>
+    <t>An Open-label Phase II Pilot Study of Prevention of Perinatal Transmission of HIV-1 Without Nucleoside Reverse Transcriptase Inhibitors</t>
   </si>
   <si>
     <t>Altered Homing of T Lymphocytes to the Gut and Poor Immune Reconstitution of the Intestinal Mucosa in Treated HIV-infected Individuals</t>
   </si>
   <si>
-    <t>An Open-label Phase II Pilot Study of Prevention of Perinatal Transmission of HIV-1 Without Nucleoside Reverse Transcriptase Inhibitors</t>
-  </si>
-  <si>
-    <t>Phase III Multicenter Randomized Trial Evaluating in Patients At the Time of the Primary HIV-1 Infection, the Impact on the Viral Reservoir of a Combination Including Tenofovir/emtricitabine and Dolutegravir or Tenofovir/emtricitabine and Darunavir/cobicistat</t>
-  </si>
-  <si>
     <t>Towards Ending HCV Infection Among Active Drug Users: a Community-based Intervention in Montpellier.</t>
   </si>
   <si>
+    <t>Prevention of HIV Infection in Men Who Have Sex With Men in Sub-Saharan Africa: Feasibility and Interest of a Quarterly Preventive Global Care (CohMSM)</t>
+  </si>
+  <si>
     <t>National Survey on Missed Opportunities to Pre-exposure Prophylaxis for Prevention of Human Immunodeficiency Virus-infection.</t>
   </si>
   <si>
+    <t>Access to Pre-exposure Prophylaxis for Men Who Have Sex With Men: Acceptability and Feasibility in Community-based Clinics in West Africa (CohMSM-PrEP)</t>
+  </si>
+  <si>
+    <t>Prevention of Mother-to-child Transmission of HIV-1: Programme Evaluation and Innovative Responsive Intervention Integrated in the Expanded Programme of Immunization. PROMISE-EPI Study</t>
+  </si>
+  <si>
+    <t>Natural History of Anal Human Papillomavirus Infection and Associated Disease in HIV-infected Men Who Have Sex With Men: Towards an Evidence Base for the Prevention of Anal Cancer.</t>
+  </si>
+  <si>
     <t>Transmission of Covid-19 During Clubbing Events in Closed Places</t>
   </si>
   <si>
-    <t>Natural History of Anal Human Papillomavirus Infection and Associated Disease in HIV-infected Men Who Have Sex With Men: Towards an Evidence Base for the Prevention of Anal Cancer.</t>
+    <t>A Phase II Trial Assessing Immunogenicity and Safety of COVID-19 mRNA Vaccine BNT162b2 in Adult Volunteers With no History of SARS-CoV-2 Infection Administered With Two Doses of Vaccine (D1-D29) and in Adult Volunteers With Documented History of SARS-CoV-2 Infection (of More Than 5 Months) Administered With Only One Dose of Vaccine</t>
+  </si>
+  <si>
+    <t>EHVA T02 (European HIV Vaccine Alliance Therapeutic Trial 02)/ANRS VRI07: A Phase II Randomised, Placebo-controlled Trial of Vedolizumab With or Without Therapeutic HIV MVA Vaccine in Individuals Who Started Antiretrovirals During Primary or Chronic Infection</t>
   </si>
   <si>
     <t>A Prospective Study Aiming to Determine the Cartography of Virological Reservoir Related to Antiretroviral Concentrations in Chronic HIV-1 Patients Treated with a First Line of Dolutegravir and Associated Nucleoside / Nucleotide Reverse Transcriptase Inhibitors (NRTIs).</t>
   </si>
   <si>
-    <t>A Phase II Trial Assessing Immunogenicity and Safety of COVID-19 mRNA Vaccine BNT162b2 in Adult Volunteers With no History of SARS-CoV-2 Infection Administered With Two Doses of Vaccine (D1-D29) and in Adult Volunteers With Documented History of SARS-CoV-2 Infection (of More Than 5 Months) Administered With Only One Dose of Vaccine</t>
-  </si>
-  <si>
-    <t>EHVA T02 (European HIV Vaccine Alliance Therapeutic Trial 02)/ANRS VRI07: A Phase II Randomised, Placebo-controlled Trial of Vedolizumab With or Without Therapeutic HIV MVA Vaccine in Individuals Who Started Antiretrovirals During Primary or Chronic Infection</t>
+    <t>A Phase I Multicenter Double-blind Placebo Controlled Dose Escalation Trial of an Adjuvanted Anti-CD40 mAb Fused to Env GP140 HIV Clade C ZM-96 (CD40.HIVRI.Env) Vaccine Combined or Not With a DNA-HIV-PT123 HIV-1 Vaccine in Healthy Participants</t>
+  </si>
+  <si>
+    <t>Aging With HIV and Neurocognitive Decline, a Follow-up Study</t>
   </si>
   <si>
     <t>Combined Prevention of Sexually Transmitted Infections (STIs) in Men Who Have Sex With Men and Using Oral Tenofovir Disoproxil Fumarate/ Emtricitabine (TDF/FTC) for HIV Pre-Exposure Prophylaxis (PrEP)</t>
   </si>
   <si>
-    <t>A Phase I Multicenter Double-blind Placebo Controlled Dose Escalation Trial of an Adjuvanted Anti-CD40 mAb Fused to Env GP140 HIV Clade C ZM-96 (CD40.HIVRI.Env) Vaccine Combined or Not With a DNA-HIV-PT123 HIV-1 Vaccine in Healthy Participants</t>
+    <t>A phase I, prophylactic HIV vaccine trial to evaluate the safety and immunogenicity of HIV Clade C DREP alone and in Combination with a Clade C ENV protein in healthy HIV-uninfected adults.</t>
+  </si>
+  <si>
+    <t>ANRS 173 ALTAR A randomized, open-label, phase III trial comparing a dual nucleoside analogues strategy preceded by an induction period with an integrase inhibitor based triple therapy to an immediate two-drug strategy with dolutegravir plus lamivudine in ART naïve people living with HIV with viral load &lt; 50 000 cp/mL and CD4 cells &gt;300/mm3 
+ ANRS 173 ALTAR Essai randomisé de phase III, ouvert, comparant une stratégie de bithérapie d’analogues nucléosidiques précédée d’une phase d’induction avec une trithérapie à base d'inhibiteur d’intégrase à une stratégie de bithérapie immédiate comportant dolutegravir plus lamivudine chez des personnes vivant avec le VIH, naïves de traitement antirétroviral, ayant une charge virale &lt; à 50 000 copies/mL et des lymphocytes CD4 &gt; 300/mm3</t>
   </si>
   <si>
     <t>ESSAI RANDOMISE MULTICENTRIQUE DE PHASE III COMPARANT L’IMMUNOGENICITE ET LA TOLERANCE DE TROIS SCHEMAS DE VACCINATION CONTRE LE VIRUS DE L’HEPATITE B CHEZ DES PATIENTS INFECTES PAR LE VIH AYANT DES LYMPHOCYTES T CD4 SUPERIEURS A 200/mm3</t>
@@ -746,52 +797,55 @@
  Essai multicentrique, en ouvert, randomisé en 2 groupes parallèles, évaluant la non-infériorité d’un traitement de maintenance à 4 jours consécutifs sur 7 versus la poursuite du traitement antirétroviral en continu, chez des patients en succès thérapeutique sous ARV.</t>
   </si>
   <si>
+    <t>EASIER</t>
+  </si>
+  <si>
     <t>ANRS134COPHAR3</t>
   </si>
   <si>
-    <t>EASIER</t>
-  </si>
-  <si>
     <t>COPHAR-3</t>
   </si>
   <si>
+    <t>EV03/ANRSVAC20</t>
+  </si>
+  <si>
+    <t>ANRS139 TRIO</t>
+  </si>
+  <si>
     <t>TRIO</t>
   </si>
   <si>
-    <t>ANRS139 TRIO</t>
-  </si>
-  <si>
-    <t>EV03/ANRSVAC20</t>
+    <t>VASCU-IL2</t>
+  </si>
+  <si>
+    <t>EP 44</t>
+  </si>
+  <si>
+    <t>ANRS 2H</t>
   </si>
   <si>
     <t>VAC-ADN</t>
   </si>
   <si>
-    <t>EP 44</t>
-  </si>
-  <si>
-    <t>VASCU-IL2</t>
-  </si>
-  <si>
-    <t>ANRS 2H</t>
-  </si>
-  <si>
     <t>HIFLUVAC</t>
   </si>
   <si>
     <t>Methaville</t>
   </si>
   <si>
+    <t>MONOI</t>
+  </si>
+  <si>
     <t>MARIMUNO</t>
   </si>
   <si>
-    <t>MONOI</t>
+    <t>DRAG</t>
   </si>
   <si>
     <t>145 MARIMUNO</t>
   </si>
   <si>
-    <t>DRAG</t>
+    <t>TIPI</t>
   </si>
   <si>
     <t>EP 49 EVARIST</t>
@@ -800,84 +854,81 @@
     <t>VIHVAC-B</t>
   </si>
   <si>
-    <t>TIPI</t>
+    <t>ETOC</t>
+  </si>
+  <si>
+    <t>HB01EMVIPEG</t>
   </si>
   <si>
     <t>ANRS CO18</t>
   </si>
   <si>
-    <t>ETOC</t>
-  </si>
-  <si>
-    <t>HB01EMVIPEG</t>
+    <t>COAT-IFN</t>
+  </si>
+  <si>
+    <t>ANRS VITAVIC</t>
+  </si>
+  <si>
+    <t>B-BOOST</t>
+  </si>
+  <si>
+    <t>TelapreVIH</t>
+  </si>
+  <si>
+    <t>ANRS 143</t>
+  </si>
+  <si>
+    <t>Lipiocis</t>
+  </si>
+  <si>
+    <t>LIVERAL</t>
   </si>
   <si>
     <t>Fibrosar</t>
   </si>
   <si>
-    <t>ANRS VITAVIC</t>
-  </si>
-  <si>
-    <t>B-BOOST</t>
-  </si>
-  <si>
-    <t>Lipiocis</t>
-  </si>
-  <si>
-    <t>TelapreVIH</t>
-  </si>
-  <si>
-    <t>COAT-IFN</t>
-  </si>
-  <si>
-    <t>LIVERAL</t>
-  </si>
-  <si>
-    <t>ANRS 143</t>
+    <t>ANRS 140 DREAM</t>
+  </si>
+  <si>
+    <t>EP48 HIV CHEST</t>
+  </si>
+  <si>
+    <t>QUADRIH</t>
   </si>
   <si>
     <t>Inter-ACTIV</t>
   </si>
   <si>
-    <t>QUADRIH</t>
-  </si>
-  <si>
-    <t>EP48 HIV CHEST</t>
-  </si>
-  <si>
     <t>BocepreVIH</t>
   </si>
   <si>
-    <t>ANRS 140 DREAM</t>
+    <t>X LIBRIS</t>
+  </si>
+  <si>
+    <t>ANRS153TREVE</t>
   </si>
   <si>
     <t>VIH-2</t>
   </si>
   <si>
-    <t>X LIBRIS</t>
-  </si>
-  <si>
-    <t>ANRS153TREVE</t>
+    <t>VRI01</t>
+  </si>
+  <si>
+    <t>ANRS162-4D</t>
   </si>
   <si>
     <t>ANRS ECHAM</t>
   </si>
   <si>
-    <t>ANRS162-4D</t>
+    <t>ANRS EP 52</t>
   </si>
   <si>
     <t>IPERGAY</t>
   </si>
   <si>
-    <t>ANRS EP 52</t>
-  </si>
-  <si>
     <t>DARULIGHT</t>
   </si>
   <si>
-    <t>VRI01</t>
-  </si>
-  <si>
     <t>OPTIMAL</t>
   </si>
   <si>
@@ -890,47 +941,61 @@
     <t>EP46 NOVAA</t>
   </si>
   <si>
+    <t>REFLATE TB2</t>
+  </si>
+  <si>
+    <t>TRANSBioHIV</t>
+  </si>
+  <si>
+    <t>CO19 COVERTE</t>
+  </si>
+  <si>
     <t>INTESTIPAX</t>
   </si>
   <si>
-    <t>ANRS SHS155 STIMAGO 
- ANRS SHS155 STIMAGO</t>
-  </si>
-  <si>
-    <t>TRANSBioHIV</t>
-  </si>
-  <si>
-    <t>REFLATE TB2</t>
-  </si>
-  <si>
-    <t>CO19 COVERTE</t>
+    <t>OPTIPRIM-2</t>
+  </si>
+  <si>
+    <t>MONOGEST</t>
   </si>
   <si>
     <t>GALT</t>
   </si>
   <si>
-    <t>MONOGEST</t>
-  </si>
-  <si>
-    <t>OPTIPRIM-2</t>
-  </si>
-  <si>
     <t>ICONE</t>
   </si>
   <si>
+    <t>CohMSM</t>
+  </si>
+  <si>
+    <t>CohMSM-PrEP</t>
+  </si>
+  <si>
+    <t>PROMISE-EPI</t>
+  </si>
+  <si>
+    <t>APACHES</t>
+  </si>
+  <si>
     <t>ITOC</t>
   </si>
   <si>
-    <t>APACHES</t>
+    <t>CoviCompareP</t>
   </si>
   <si>
     <t>DOLUVOIR</t>
   </si>
   <si>
-    <t>CoviCompareP</t>
+    <t>AgingHAND</t>
   </si>
   <si>
     <t>DOXYVAC</t>
+  </si>
+  <si>
+    <t>EHVA_P01/ANRS_VRI08</t>
+  </si>
+  <si>
+    <t>ALTAR</t>
   </si>
   <si>
     <t>Doxyvac</t>
@@ -952,6 +1017,9 @@
     <t>PROCEDURE</t>
   </si>
   <si>
+    <t>DRUG (presumed)</t>
+  </si>
+  <si>
     <t>DEVICE</t>
   </si>
   <si>
@@ -959,6 +1027,9 @@
   </si>
   <si>
     <t>OTHER</t>
+  </si>
+  <si>
+    <t>DIAGNOSTIC_TEST</t>
   </si>
   <si>
     <t>BEHAVIORAL</t>
@@ -1319,7 +1390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1365,13 +1436,13 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="I2" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1385,13 +1456,13 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G3" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="I3" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1405,13 +1476,13 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G4" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="I4" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1425,13 +1496,13 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="I5" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1445,13 +1516,13 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G6" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="I6" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1465,13 +1536,13 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G7" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="I7" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1485,13 +1556,13 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="I8" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1505,13 +1576,13 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="I9" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1525,36 +1596,33 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="I10" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H11" t="s">
-        <v>242</v>
+        <v>163</v>
       </c>
       <c r="I11" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1568,33 +1636,39 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>152</v>
+        <v>164</v>
+      </c>
+      <c r="H12" t="s">
+        <v>259</v>
       </c>
       <c r="I12" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>153</v>
+        <v>165</v>
+      </c>
+      <c r="H13" t="s">
+        <v>260</v>
       </c>
       <c r="I13" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1608,16 +1682,13 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>154</v>
-      </c>
-      <c r="H14" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="I14" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1628,16 +1699,19 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="H15" t="s">
-        <v>244</v>
+        <v>259</v>
+      </c>
+      <c r="I15" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1648,36 +1722,42 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="H16" t="s">
-        <v>243</v>
+        <v>261</v>
+      </c>
+      <c r="I16" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>157</v>
-      </c>
-      <c r="H17" t="s">
-        <v>245</v>
+        <v>169</v>
+      </c>
+      <c r="I17" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1688,16 +1768,16 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G18" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="I18" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1708,16 +1788,16 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G19" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="I19" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1728,16 +1808,16 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G20" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="I20" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1748,19 +1828,19 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G21" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="H21" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="I21" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1771,39 +1851,42 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G22" t="s">
-        <v>162</v>
+        <v>174</v>
+      </c>
+      <c r="H22" t="s">
+        <v>263</v>
       </c>
       <c r="I22" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>112</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G23" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="H23" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="I23" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1816,17 +1899,20 @@
       <c r="C24" t="s">
         <v>36</v>
       </c>
+      <c r="D24" t="s">
+        <v>113</v>
+      </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G24" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="H24" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="I24" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1840,36 +1926,36 @@
         <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G25" t="s">
-        <v>165</v>
+        <v>177</v>
+      </c>
+      <c r="H25" t="s">
+        <v>266</v>
       </c>
       <c r="I25" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G26" t="s">
-        <v>166</v>
-      </c>
-      <c r="H26" t="s">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="I26" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1883,82 +1969,79 @@
         <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G27" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I27" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
-      <c r="D28" t="s">
-        <v>107</v>
-      </c>
       <c r="F28" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G28" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="H28" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="I28" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G29" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I29" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G30" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="H30" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="I30" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1969,16 +2052,19 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F31" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G31" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="H31" t="s">
-        <v>252</v>
+        <v>269</v>
+      </c>
+      <c r="I31" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1992,16 +2078,16 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G32" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="H32" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="I32" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2012,16 +2098,19 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F33" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G33" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="H33" t="s">
-        <v>254</v>
+        <v>271</v>
+      </c>
+      <c r="I33" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2031,17 +2120,20 @@
       <c r="B34" t="s">
         <v>13</v>
       </c>
-      <c r="C34" t="s">
-        <v>44</v>
+      <c r="D34" t="s">
+        <v>116</v>
       </c>
       <c r="F34" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G34" t="s">
-        <v>174</v>
+        <v>186</v>
+      </c>
+      <c r="H34" t="s">
+        <v>272</v>
       </c>
       <c r="I34" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2051,17 +2143,17 @@
       <c r="B35" t="s">
         <v>13</v>
       </c>
-      <c r="D35" t="s">
-        <v>110</v>
+      <c r="C35" t="s">
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G35" t="s">
-        <v>175</v>
-      </c>
-      <c r="H35" t="s">
-        <v>255</v>
+        <v>187</v>
+      </c>
+      <c r="I35" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2075,16 +2167,13 @@
         <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>129</v>
-      </c>
-      <c r="G36" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="H36" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="I36" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2098,125 +2187,125 @@
         <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="G37" t="s">
+        <v>188</v>
       </c>
       <c r="H37" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="I37" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
         <v>47</v>
       </c>
       <c r="F38" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G38" t="s">
-        <v>177</v>
-      </c>
-      <c r="H38" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="I38" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
         <v>48</v>
       </c>
       <c r="F39" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G39" t="s">
-        <v>178</v>
+        <v>190</v>
+      </c>
+      <c r="H39" t="s">
+        <v>275</v>
       </c>
       <c r="I39" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
         <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G40" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="H40" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="I40" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
         <v>50</v>
       </c>
       <c r="F41" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G41" t="s">
-        <v>180</v>
-      </c>
-      <c r="H41" t="s">
-        <v>260</v>
+        <v>192</v>
       </c>
       <c r="I41" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
         <v>51</v>
       </c>
       <c r="F42" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G42" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="H42" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="I42" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2230,36 +2319,39 @@
         <v>52</v>
       </c>
       <c r="F43" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G43" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H43" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="I43" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" t="s">
-        <v>53</v>
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>117</v>
       </c>
       <c r="F44" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G44" t="s">
-        <v>183</v>
+        <v>195</v>
+      </c>
+      <c r="H44" t="s">
+        <v>278</v>
       </c>
       <c r="I44" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2270,82 +2362,88 @@
         <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F45" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G45" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="H45" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="I45" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" t="s">
-        <v>111</v>
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
       </c>
       <c r="F46" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G46" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="H46" t="s">
-        <v>262</v>
+        <v>280</v>
+      </c>
+      <c r="I46" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>118</v>
       </c>
       <c r="F47" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G47" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="H47" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="I47" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F48" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G48" t="s">
-        <v>187</v>
+        <v>199</v>
+      </c>
+      <c r="H48" t="s">
+        <v>282</v>
       </c>
       <c r="I48" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2356,39 +2454,42 @@
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F49" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G49" t="s">
-        <v>188</v>
+        <v>200</v>
+      </c>
+      <c r="H49" t="s">
+        <v>283</v>
       </c>
       <c r="I49" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F50" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G50" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="H50" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="I50" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2399,65 +2500,65 @@
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="D51" t="s">
+        <v>119</v>
       </c>
       <c r="F51" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G51" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="H51" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="I51" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G52" t="s">
-        <v>191</v>
-      </c>
-      <c r="H52" t="s">
-        <v>267</v>
+        <v>203</v>
       </c>
       <c r="I52" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="D53" t="s">
+        <v>120</v>
       </c>
       <c r="F53" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G53" t="s">
-        <v>192</v>
-      </c>
-      <c r="H53" t="s">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c r="I53" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2467,123 +2568,135 @@
       <c r="B54" t="s">
         <v>14</v>
       </c>
-      <c r="D54" t="s">
-        <v>112</v>
+      <c r="C54" t="s">
+        <v>61</v>
       </c>
       <c r="F54" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G54" t="s">
-        <v>193</v>
+        <v>205</v>
+      </c>
+      <c r="H54" t="s">
+        <v>286</v>
+      </c>
+      <c r="I54" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" t="s">
-        <v>113</v>
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>62</v>
       </c>
       <c r="F55" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G55" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="H55" t="s">
-        <v>269</v>
+        <v>287</v>
+      </c>
+      <c r="I55" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" t="s">
-        <v>62</v>
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>121</v>
       </c>
       <c r="F56" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G56" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="H56" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="I56" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" t="s">
-        <v>114</v>
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>63</v>
       </c>
       <c r="F57" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G57" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="H57" t="s">
-        <v>270</v>
+        <v>288</v>
+      </c>
+      <c r="I57" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F58" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G58" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="H58" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="I58" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F59" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G59" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="H59" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="I59" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2594,42 +2707,45 @@
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="D60" t="s">
+        <v>122</v>
       </c>
       <c r="F60" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G60" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="H60" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="I60" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F61" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G61" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="H61" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="I61" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2640,65 +2756,62 @@
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F62" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G62" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="H62" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="I62" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F63" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G63" t="s">
-        <v>202</v>
-      </c>
-      <c r="H63" t="s">
-        <v>276</v>
+        <v>214</v>
       </c>
       <c r="I63" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="D64" t="s">
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G64" t="s">
-        <v>203</v>
-      </c>
-      <c r="H64" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="I64" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2709,39 +2822,39 @@
         <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F65" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G65" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="H65" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="I65" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F66" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G66" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="I66" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2752,19 +2865,16 @@
         <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F67" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G67" t="s">
-        <v>206</v>
-      </c>
-      <c r="H67" t="s">
-        <v>279</v>
+        <v>218</v>
       </c>
       <c r="I67" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2775,39 +2885,42 @@
         <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F68" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G68" t="s">
-        <v>207</v>
+        <v>219</v>
+      </c>
+      <c r="H68" t="s">
+        <v>295</v>
       </c>
       <c r="I68" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>74</v>
-      </c>
-      <c r="D69" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="F69" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G69" t="s">
-        <v>208</v>
+        <v>220</v>
+      </c>
+      <c r="H69" t="s">
+        <v>296</v>
       </c>
       <c r="I69" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2818,19 +2931,19 @@
         <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G70" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="H70" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="I70" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2841,42 +2954,45 @@
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="D71" t="s">
+        <v>124</v>
       </c>
       <c r="F71" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G71" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="H71" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="I71" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F72" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G72" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="H72" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="I72" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2887,65 +3003,65 @@
         <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F73" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G73" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="H73" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="I73" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F74" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G74" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="H74" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="I74" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F75" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G75" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="H75" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="I75" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2956,19 +3072,19 @@
         <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F76" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G76" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="H76" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="I76" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2979,68 +3095,65 @@
         <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D77" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F77" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G77" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H77" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="I77" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F78" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G78" t="s">
-        <v>217</v>
-      </c>
-      <c r="H78" t="s">
-        <v>288</v>
+        <v>229</v>
       </c>
       <c r="I78" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F79" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G79" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="H79" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="I79" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3051,36 +3164,42 @@
         <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="D80" t="s">
+        <v>126</v>
       </c>
       <c r="F80" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G80" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="I80" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F81" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G81" t="s">
-        <v>220</v>
+        <v>232</v>
+      </c>
+      <c r="H81" t="s">
+        <v>306</v>
       </c>
       <c r="I81" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3091,16 +3210,19 @@
         <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F82" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="G82" t="s">
-        <v>221</v>
+        <v>233</v>
+      </c>
+      <c r="H82" t="s">
+        <v>307</v>
       </c>
       <c r="I82" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3111,82 +3233,82 @@
         <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F83" t="s">
-        <v>136</v>
-      </c>
-      <c r="G83" t="s">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="H83" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="I83" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" t="s">
-        <v>117</v>
+        <v>14</v>
+      </c>
+      <c r="C84" t="s">
+        <v>90</v>
       </c>
       <c r="F84" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="G84" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="H84" t="s">
-        <v>291</v>
+        <v>309</v>
+      </c>
+      <c r="I84" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F85" t="s">
-        <v>136</v>
-      </c>
-      <c r="H85" t="s">
-        <v>292</v>
+        <v>148</v>
+      </c>
+      <c r="G85" t="s">
+        <v>235</v>
       </c>
       <c r="I85" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F86" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="G86" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="H86" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="I86" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3197,19 +3319,22 @@
         <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="D87" t="s">
+        <v>127</v>
       </c>
       <c r="F87" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G87" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="H87" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="I87" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3220,19 +3345,19 @@
         <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F88" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G88" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="H88" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="I88" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3243,42 +3368,42 @@
         <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F89" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G89" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="H89" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="I89" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F90" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="G90" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="H90" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="I90" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3289,19 +3414,19 @@
         <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F91" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="G91" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="H91" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="I91" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3312,39 +3437,39 @@
         <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F92" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="G92" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="I92" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F93" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="G93" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="H93" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="I93" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3355,19 +3480,19 @@
         <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F94" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="G94" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="H94" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="I94" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3378,19 +3503,19 @@
         <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F95" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="G95" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="H95" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="I95" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3401,65 +3526,65 @@
         <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F96" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="G96" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="H96" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="I96" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>101</v>
-      </c>
-      <c r="D97" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F97" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G97" t="s">
-        <v>235</v>
+        <v>247</v>
+      </c>
+      <c r="H97" t="s">
+        <v>320</v>
       </c>
       <c r="I97" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="D98" t="s">
+        <v>128</v>
       </c>
       <c r="F98" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="G98" t="s">
-        <v>236</v>
-      </c>
-      <c r="H98" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="I98" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3470,33 +3595,39 @@
         <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F99" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="G99" t="s">
-        <v>237</v>
+        <v>249</v>
+      </c>
+      <c r="H99" t="s">
+        <v>321</v>
       </c>
       <c r="I99" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100" t="s">
-        <v>119</v>
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>106</v>
+      </c>
+      <c r="F100" t="s">
+        <v>153</v>
       </c>
       <c r="G100" t="s">
-        <v>238</v>
-      </c>
-      <c r="H100" t="s">
-        <v>259</v>
+        <v>250</v>
+      </c>
+      <c r="I100" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3506,14 +3637,20 @@
       <c r="B101" t="s">
         <v>14</v>
       </c>
-      <c r="D101" t="s">
-        <v>120</v>
+      <c r="C101" t="s">
+        <v>107</v>
+      </c>
+      <c r="F101" t="s">
+        <v>153</v>
       </c>
       <c r="G101" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="H101" t="s">
-        <v>304</v>
+        <v>322</v>
+      </c>
+      <c r="I101" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3523,14 +3660,20 @@
       <c r="B102" t="s">
         <v>14</v>
       </c>
-      <c r="D102" t="s">
-        <v>121</v>
+      <c r="C102" t="s">
+        <v>108</v>
+      </c>
+      <c r="F102" t="s">
+        <v>153</v>
       </c>
       <c r="G102" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="H102" t="s">
-        <v>305</v>
+        <v>323</v>
+      </c>
+      <c r="I102" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3541,13 +3684,116 @@
         <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G103" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="H103" t="s">
-        <v>306</v>
+        <v>324</v>
+      </c>
+      <c r="I103" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
+        <v>130</v>
+      </c>
+      <c r="G104" t="s">
+        <v>254</v>
+      </c>
+      <c r="H104" t="s">
+        <v>325</v>
+      </c>
+      <c r="I104" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" t="s">
+        <v>131</v>
+      </c>
+      <c r="G105" t="s">
+        <v>255</v>
+      </c>
+      <c r="H105" t="s">
+        <v>277</v>
+      </c>
+      <c r="I105" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>132</v>
+      </c>
+      <c r="G106" t="s">
+        <v>256</v>
+      </c>
+      <c r="H106" t="s">
+        <v>326</v>
+      </c>
+      <c r="I106" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" t="s">
+        <v>133</v>
+      </c>
+      <c r="G107" t="s">
+        <v>257</v>
+      </c>
+      <c r="H107" t="s">
+        <v>327</v>
+      </c>
+      <c r="I107" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" t="s">
+        <v>134</v>
+      </c>
+      <c r="G108" t="s">
+        <v>258</v>
+      </c>
+      <c r="H108" t="s">
+        <v>328</v>
+      </c>
+      <c r="I108" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
